--- a/wineData.xlsx
+++ b/wineData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -23,544 +23,301 @@
     <t>price</t>
   </si>
   <si>
-    <t>Jackson-Triggs Cabernet Sauvignon Bag in Box</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Red Bag in Box</t>
-  </si>
-  <si>
-    <t>Wolf Blass Yellow Label Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Jackson-Triggs Merlot Bag in Box</t>
-  </si>
-  <si>
-    <t>Apothic Red</t>
-  </si>
-  <si>
-    <t>Jacob's Creek Shiraz Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Carlo Rossi California Red</t>
-  </si>
-  <si>
-    <t>Jackson-Triggs Merlot</t>
-  </si>
-  <si>
-    <t>L'Ambiance Red</t>
-  </si>
-  <si>
-    <t>Woodbridge by Robert Mondavi Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Cabernet Merlot Bag in Box</t>
-  </si>
-  <si>
-    <t>Santa Carolina Cabernet Merlot</t>
-  </si>
-  <si>
-    <t>Yellow Tail Shiraz</t>
-  </si>
-  <si>
-    <t>Ruffino Chianti</t>
-  </si>
-  <si>
-    <t>Bodacious Smooth Red Bag in Box</t>
-  </si>
-  <si>
-    <t>Sawmill Creek Dry Red Bag in Box</t>
-  </si>
-  <si>
-    <t>Beringer Main &amp; Vine Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Mcmanis Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Fuzion Shiraz Malbec</t>
-  </si>
-  <si>
-    <t>Gato Negro Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Domaine D'Or Red</t>
-  </si>
-  <si>
-    <t>Cono Sur Tocornal Cabernet Sauvignon Merlot</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Cabernet Sauvignon Bag in Box</t>
-  </si>
-  <si>
-    <t>J. Lohr Seven Oaks Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Fantini Farnese Sangiovese IGT</t>
-  </si>
-  <si>
-    <t>L'Epayrie Special Reserve Rouge</t>
-  </si>
-  <si>
-    <t>Citra Montepulciano D'Abruzzo</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Shiraz Bag in Box</t>
-  </si>
-  <si>
-    <t>Jackson-Triggs Shiraz Bag in Box</t>
-  </si>
-  <si>
-    <t>Donini Merlot</t>
-  </si>
-  <si>
-    <t>Jackson-Triggs Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Fantini Farnese Montepulciano Dabruzzo</t>
-  </si>
-  <si>
-    <t>Apothic Dark Red</t>
-  </si>
-  <si>
-    <t>Brights Maria Christina Red</t>
-  </si>
-  <si>
-    <t>Concha Y Toro Frontera Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Folonari Valpolicella DOC</t>
-  </si>
-  <si>
-    <t>Cono Sur Tocornal Cabernet Sauvignon Shiraz</t>
-  </si>
-  <si>
-    <t>Mezzomondo Negroamaro Puglia IGT</t>
-  </si>
-  <si>
-    <t>Carnivor Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Naked Grape Shiraz Bag in Box</t>
-  </si>
-  <si>
-    <t>Radio Boka Tempranillo Valencia</t>
-  </si>
-  <si>
-    <t>Cupcake Red Velvet</t>
-  </si>
-  <si>
-    <t>Sawmill Creek Merlot Bag in Box</t>
-  </si>
-  <si>
-    <t>Pelee Island Rouge Bag in Box</t>
-  </si>
-  <si>
-    <t>Santa Carolina Merlot</t>
-  </si>
-  <si>
-    <t>Ménage À Trois Red</t>
-  </si>
-  <si>
-    <t>Masi Campofiorin IGT</t>
-  </si>
-  <si>
-    <t>Lindemans Cawarra Shiraz Cabernet</t>
-  </si>
-  <si>
-    <t>Santa Rita Reserva Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Pelee Island Rouge</t>
-  </si>
-  <si>
-    <t>Bodacious Smooth Red</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Merlot Bag in Box</t>
-  </si>
-  <si>
-    <t>Yellow Tail Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Beringer Founders' Estate Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Cesari Adesso Merlot D'Italia</t>
-  </si>
-  <si>
-    <t>Wolf Blass Yellow Label Shiraz</t>
-  </si>
-  <si>
-    <t>Yellow Tail Big Bold Red</t>
-  </si>
-  <si>
-    <t>Josh Cellars Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Pelee Island Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Folonari Valpolicella Classico</t>
-  </si>
-  <si>
-    <t>Brindisi Rosso Dop</t>
-  </si>
-  <si>
-    <t>Grand Sud Merlot</t>
-  </si>
-  <si>
-    <t>Bota Box Cabernet Sauvignon Bib</t>
-  </si>
-  <si>
-    <t>Cupcake Red Velvet Bib</t>
-  </si>
-  <si>
-    <t>Big Bill Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Bonterra Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Open Smooth Red VQA Bag in Box</t>
-  </si>
-  <si>
-    <t>Spinelli Montepulciano D'Abruzzo</t>
-  </si>
-  <si>
-    <t>Fontana Di Papa Red</t>
-  </si>
-  <si>
-    <t>Campo Viejo Rioja Reserva</t>
-  </si>
-  <si>
-    <t>Jackson-Triggs Shiraz</t>
-  </si>
-  <si>
-    <t>Wyndham Estate Bin 555 Shiraz</t>
-  </si>
-  <si>
-    <t>Misterio Malbec</t>
-  </si>
-  <si>
-    <t>Sterling Vintner's Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Cabernet Merlot Tetra</t>
-  </si>
-  <si>
-    <t>Mcguigan Black Label Shiraz</t>
-  </si>
-  <si>
-    <t>Masi Bonacosta Valpolicella Classico DOC</t>
-  </si>
-  <si>
-    <t>Rodney Strong Estate Russian River Valley Pinot Noir</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Cabernet Merlot</t>
-  </si>
-  <si>
-    <t>Two Oceans Cabernet Sauvignon Merlot</t>
-  </si>
-  <si>
-    <t>Liberty School Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Gato Negro Merlot</t>
-  </si>
-  <si>
-    <t>Yellow Tail Merlot</t>
-  </si>
-  <si>
-    <t>Concha Y Toro Frontera Shiraz Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Smoking Loon Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Mezzomondo Sangiovese Merlot Puglia IGT</t>
-  </si>
-  <si>
-    <t>Forward Malbec Cabernet</t>
-  </si>
-  <si>
-    <t>Ravenswood Vintners Blend Old Vine Zinfandel</t>
-  </si>
-  <si>
-    <t>Gabbiano Chianti DOCG</t>
-  </si>
-  <si>
-    <t>Pelee Island Merlot</t>
-  </si>
-  <si>
-    <t>Eastdell Black Cab VQA</t>
-  </si>
-  <si>
-    <t>Gabbiano Chianti Classico DOCG</t>
-  </si>
-  <si>
-    <t>Meiomi Pinot Noir</t>
-  </si>
-  <si>
-    <t>Apothic Red Duo Gift Pack</t>
-  </si>
-  <si>
-    <t>B &amp; G Partager Rouge</t>
-  </si>
-  <si>
-    <t>Raven Conspiracy Deep Dark Red VQA</t>
-  </si>
-  <si>
-    <t>Pelee Island Cabernet Franc VQA</t>
-  </si>
-  <si>
-    <t>Zenato Ripassa Valpolicella Superiore</t>
-  </si>
-  <si>
-    <t>Trapiche Reserve Malbec</t>
-  </si>
-  <si>
-    <t>Black Cellar Shiraz Cabernet</t>
-  </si>
-  <si>
-    <t>Gray Fox Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Kim Crawford Pinot Noir</t>
-  </si>
-  <si>
-    <t>La Vieille Ferme Cotes Du Ventoux Aoc</t>
-  </si>
-  <si>
-    <t>Apothic Crush Red Blend</t>
-  </si>
-  <si>
-    <t>Fuzion Alta Reserve Malbec</t>
-  </si>
-  <si>
-    <t>Sola Nero Red</t>
-  </si>
-  <si>
-    <t>Dragani Montepulciano D'Abruzzo</t>
-  </si>
-  <si>
-    <t>The Dreaming Tree Crush Red Blend</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Red</t>
-  </si>
-  <si>
-    <t>Tedeschi Capitel Nicalo 2015</t>
-  </si>
-  <si>
-    <t>Yvon Mau Merlot Vdp</t>
-  </si>
-  <si>
-    <t>Kressmann Selection Merlot</t>
-  </si>
-  <si>
-    <t>Rosemount Diamond Shiraz</t>
-  </si>
-  <si>
-    <t>Cesari Mara Valpolicella Ripasso Superiore DOC</t>
-  </si>
-  <si>
-    <t>Mirassou Pinot Noir</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Shiraz Tetra</t>
-  </si>
-  <si>
-    <t>Columbia Crest H3 Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Castillo de Almansa Reserva</t>
-  </si>
-  <si>
-    <t>Pelee Pebbles Red</t>
-  </si>
-  <si>
-    <t>Peller Estates French Cross Red Tetra</t>
-  </si>
-  <si>
-    <t>Pelee Island Shiraz Cabernet</t>
-  </si>
-  <si>
-    <t>Hardys Stamp Series Shiraz Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Colio Dry Red</t>
-  </si>
-  <si>
-    <t>Brotte La Fiole Cote Du Rhone Aoc</t>
-  </si>
-  <si>
     <t>Mouton Cadet Bordeaux Red Aoc</t>
   </si>
   <si>
-    <t>Rocca Delle Macie Chianti Vernaiolo DOCG</t>
-  </si>
-  <si>
-    <t>Sandbanks Baco Noir VQA</t>
-  </si>
-  <si>
-    <t>Luccarelli Primitivo Puglia IGT</t>
-  </si>
-  <si>
-    <t>Henry of Pelham Baco Noir VQA</t>
-  </si>
-  <si>
-    <t>Revolution Red</t>
-  </si>
-  <si>
-    <t>Mallee Rock Shiraz Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Inception Deep Layered Red</t>
-  </si>
-  <si>
-    <t>Monte Zovo Sa' Solin Ripasso Valpolicella</t>
-  </si>
-  <si>
-    <t>Sogrape Vila Regia, Douro</t>
-  </si>
-  <si>
-    <t>Robert Mondavi Napa Valley Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Smoking Loon Old Vine Zinfandel</t>
-  </si>
-  <si>
-    <t>Beringer Knights Valley Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Luigi Bosca Malbec</t>
-  </si>
-  <si>
-    <t>Santa Rosa Estate Malbec</t>
-  </si>
-  <si>
-    <t>Open Smooth Red VQA</t>
-  </si>
-  <si>
-    <t>Citra Montepulciano D'Abruzzo DOC</t>
-  </si>
-  <si>
-    <t>Barefoot Merlot</t>
-  </si>
-  <si>
-    <t>Small Gully the Formula Robert's Shiraz</t>
-  </si>
-  <si>
-    <t>Argento Malbec</t>
-  </si>
-  <si>
-    <t>Castillo de Almansa Reserva, Almansa</t>
-  </si>
-  <si>
-    <t>Finagra Alandra Red</t>
-  </si>
-  <si>
-    <t>Monte Antico</t>
-  </si>
-  <si>
-    <t>Trapiche Astica Merlot / Malbec</t>
-  </si>
-  <si>
-    <t>Pelee Island Monarch Red VQA</t>
-  </si>
-  <si>
-    <t>Las Mulas Organic Cabernet Sauvignon Reserva</t>
-  </si>
-  <si>
-    <t>Robert Mondavi Private Selection Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Negrar Valpolicella DOC</t>
-  </si>
-  <si>
-    <t>Jp Azeitão Red</t>
-  </si>
-  <si>
-    <t>Rocca Delle Macìe Chianti Classico</t>
-  </si>
-  <si>
-    <t>Wayne Gretzky Cabernet Merlot VQA</t>
-  </si>
-  <si>
-    <t>Torres Gran Coronas Reserva Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Beronia Tempranillo Rioja</t>
-  </si>
-  <si>
-    <t>Porta 6, Vr Lisboa</t>
-  </si>
-  <si>
-    <t>The Wanted Zin Old Vines Zinfandel IGT</t>
-  </si>
-  <si>
-    <t>Copper Moon Merlot</t>
-  </si>
-  <si>
-    <t>Passion of Portugal Red</t>
-  </si>
-  <si>
-    <t>Gnarly Head Old Vine Zinfandel</t>
-  </si>
-  <si>
-    <t>Alianca Terra Boa Vinho Tinto, Old Vines, Beira</t>
-  </si>
-  <si>
-    <t>Open Cab 2 Merlot VQA</t>
-  </si>
-  <si>
-    <t>Masi Modello Delle Venezie Rosso IGT</t>
-  </si>
-  <si>
-    <t>19 Crimes Shiraz Durif</t>
-  </si>
-  <si>
-    <t>Abad Dom Bueno Mencía 2013</t>
-  </si>
-  <si>
-    <t>Sandbanks French Kiss VQA</t>
-  </si>
-  <si>
-    <t>Santa Carolina Reserva Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Casillero del Diablo Reserva Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Lindemans Bin 50 Shiraz</t>
-  </si>
-  <si>
-    <t>Georges Duboeuf Beaujolais Aoc</t>
-  </si>
-  <si>
-    <t>Lindemans Bin 45 Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Tommasi Ripasso Valpolicella Classico Superiore</t>
-  </si>
-  <si>
-    <t>Mitolo Jester Shiraz</t>
-  </si>
-  <si>
-    <t>Inniskillin Pinot Noir VQA</t>
-  </si>
-  <si>
-    <t>Stone Cellars Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Longhand Merlot-Cabernet VQA</t>
-  </si>
-  <si>
-    <t>Jacob's Creek Double Barrel Shiraz</t>
-  </si>
-  <si>
-    <t>Pérez Cruz Reserva Cabernet Sauvignon</t>
+    <t>Chateau Timberlay Bordeaux Superieur Aoc</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Moueix 2015</t>
+  </si>
+  <si>
+    <t>Château Argadens</t>
+  </si>
+  <si>
+    <t>Château La Croix de Queynac 2015</t>
+  </si>
+  <si>
+    <t>Château Bréhat 2012</t>
+  </si>
+  <si>
+    <t>Chateau de Courteillac Bordeaux Aoc</t>
+  </si>
+  <si>
+    <t>Château Pipeau</t>
+  </si>
+  <si>
+    <t>Château D'Argadens Blanc 2016</t>
+  </si>
+  <si>
+    <t>Mouton Cadet Bordeaux White Aoc</t>
+  </si>
+  <si>
+    <t>Chateau Puyfromage Francs Cotes de Bordeaux Aoc</t>
+  </si>
+  <si>
+    <t>A de Luze &amp; Fils Chateau Bel Air Bordeaux Aoc</t>
+  </si>
+  <si>
+    <t>Chateau Fongaban Castillon Aoc Bordeaux Organic</t>
+  </si>
+  <si>
+    <t>Château Hauchat 2015</t>
+  </si>
+  <si>
+    <t>Calvet Reserve Des Remparts Saint Emilion Aoc</t>
+  </si>
+  <si>
+    <t>Chateau Saint-Germain Bordeaux Superieur Aoc</t>
+  </si>
+  <si>
+    <t>Francois Lurton Sauvignon Blanc Bordeaux Aoc</t>
+  </si>
+  <si>
+    <t>Château Peyrabon 2015</t>
+  </si>
+  <si>
+    <t>Château Teyssier 2014</t>
+  </si>
+  <si>
+    <t>Château Haut-Bertinerie Elegance Merlot / Cabernet 2014</t>
+  </si>
+  <si>
+    <t>B &amp; G Passeport Bordeaux White</t>
+  </si>
+  <si>
+    <t>Chateau Canteloup, Medoc Aoc</t>
+  </si>
+  <si>
+    <t>Chateau Graves de Rabion Saint Emilion, Aoc Red</t>
+  </si>
+  <si>
+    <t>Château Barde-Haut 2006</t>
+  </si>
+  <si>
+    <t>Château Guillou 2015</t>
+  </si>
+  <si>
+    <t>Ginestet Grand Vin de Pauillac 2015</t>
+  </si>
+  <si>
+    <t>Yvon Mau Bordeaux Discovery Chest</t>
+  </si>
+  <si>
+    <t>Chateau Tour Carmail, Haut-Medoc Aoc</t>
+  </si>
+  <si>
+    <t>Château Siaurac 2010</t>
+  </si>
+  <si>
+    <t>Château Martinon Entre-Deux-Mers 2016</t>
+  </si>
+  <si>
+    <t>Château Des Bardes 2014</t>
+  </si>
+  <si>
+    <t>Château Ampélia 2015</t>
+  </si>
+  <si>
+    <t>Château Tauzinat L'Hermitage Red 2015</t>
+  </si>
+  <si>
+    <t>Premius Crémant de Bordeaux</t>
+  </si>
+  <si>
+    <t>Château Joinin 2015</t>
+  </si>
+  <si>
+    <t>Plais de L'Obriere Bordeaux Superieur Kpm 2015</t>
+  </si>
+  <si>
+    <t>Les Charmes de Magnol 2014</t>
+  </si>
+  <si>
+    <t>Château Gazin-Rocquencourt 2012</t>
+  </si>
+  <si>
+    <t>Château Mongravey 2014</t>
+  </si>
+  <si>
+    <t>Château Tour de Pez 2008</t>
+  </si>
+  <si>
+    <t>Château Sérilhan 2012</t>
+  </si>
+  <si>
+    <t>Château Brown 2012</t>
+  </si>
+  <si>
+    <t>Château Des Demoiselles &amp; Château Larroque</t>
+  </si>
+  <si>
+    <t>Château Chapelle D'Aliénor 2014</t>
+  </si>
+  <si>
+    <t>Château La Croix Du Casse 2009</t>
+  </si>
+  <si>
+    <t>Ségla 2010</t>
+  </si>
+  <si>
+    <t>Château Cos D'Estournel 2011</t>
+  </si>
+  <si>
+    <t>Château Roc Des Moulins Kpm</t>
+  </si>
+  <si>
+    <t>Domaine Des Sabines 2014</t>
+  </si>
+  <si>
+    <t>Château La Tour Du Pin Figeac 2000</t>
+  </si>
+  <si>
+    <t>Château La Garde 2010</t>
+  </si>
+  <si>
+    <t>Château de Landiras 2014</t>
+  </si>
+  <si>
+    <t>Château Montlandrie 2009</t>
+  </si>
+  <si>
+    <t>Château Sénéjac</t>
+  </si>
+  <si>
+    <t>Château Marquis de Mons 2010</t>
+  </si>
+  <si>
+    <t>Château Francs Magnus 2015</t>
+  </si>
+  <si>
+    <t>Château Gaby 2011</t>
+  </si>
+  <si>
+    <t>Clos Des Moiselles 2014</t>
+  </si>
+  <si>
+    <t>Château Barde-Haut 2012</t>
+  </si>
+  <si>
+    <t>Château Pierre de Montignac 2009</t>
+  </si>
+  <si>
+    <t>Château Clos de Sarpe 1996</t>
+  </si>
+  <si>
+    <t>Clos Du Marquis 2003</t>
+  </si>
+  <si>
+    <t>Château Du Carillon 2010</t>
+  </si>
+  <si>
+    <t>Château Barde-Haut 2004</t>
+  </si>
+  <si>
+    <t>Château Tertre Daugay 2008</t>
+  </si>
+  <si>
+    <t>Château Les Justices 2014</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville Baron 2012</t>
+  </si>
+  <si>
+    <t>Château La Tour Carnet 2010</t>
+  </si>
+  <si>
+    <t>Charme D'Alienor Crémant de Bordeaux</t>
+  </si>
+  <si>
+    <t>Château Teyssier 2012</t>
+  </si>
+  <si>
+    <t>Château Verdignan 2005</t>
+  </si>
+  <si>
+    <t>Château Armens 2010</t>
+  </si>
+  <si>
+    <t>La Chapelle de La Mission Haut-Brion 2009</t>
+  </si>
+  <si>
+    <t>Château Potensac 2005</t>
+  </si>
+  <si>
+    <t>Château Coufran 2014</t>
+  </si>
+  <si>
+    <t>Château Coufran 2005</t>
+  </si>
+  <si>
+    <t>Château La Fleur Pourret 2010</t>
+  </si>
+  <si>
+    <t>Château Citran 2014</t>
+  </si>
+  <si>
+    <t>Château de Marsan 2014</t>
+  </si>
+  <si>
+    <t>Château Le Grand Verdus Merlot / Cabernet Sauvignon 2014</t>
+  </si>
+  <si>
+    <t>Les Pagodes de Cos 2010</t>
+  </si>
+  <si>
+    <t>Château Montrose 2011</t>
+  </si>
+  <si>
+    <t>Château Marsac-Seguineau 2010</t>
+  </si>
+  <si>
+    <t>Château Pontet-Canet 2013</t>
+  </si>
+  <si>
+    <t>Domaine de Chevalier 2008</t>
+  </si>
+  <si>
+    <t>La Clarté de Haut Brion Blanc 2013</t>
+  </si>
+  <si>
+    <t>Chateau Michel de Vert Lussac Saint-Emilion 2014</t>
+  </si>
+  <si>
+    <t>Château de Lamarque 2010</t>
+  </si>
+  <si>
+    <t>Château Ferrière 2000</t>
+  </si>
+  <si>
+    <t>Chateau Camille Gaucheraud Sauvignon Blanc 2015</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville Baron 2002</t>
+  </si>
+  <si>
+    <t>Château Smith Haut Lafitte 2014</t>
+  </si>
+  <si>
+    <t>Château Gruaud Larose 2014</t>
+  </si>
+  <si>
+    <t>Château Sainte-Marie Vieilles Vignes Entre-Deux-Mers 2015</t>
+  </si>
+  <si>
+    <t>Château Gazin 2014</t>
+  </si>
+  <si>
+    <t>Château Rieussec 2010</t>
+  </si>
+  <si>
+    <t>Château Talbot 2014</t>
+  </si>
+  <si>
+    <t>Lillet Rouge</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville Baron 2010</t>
   </si>
 </sst>
 </file>
@@ -896,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4495</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -925,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3795</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -933,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1695</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -941,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4095</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -949,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1695</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -957,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1345</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -965,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>2645</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -973,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1895</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -981,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>3395</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -989,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1375</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -997,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>4295</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1005,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1410</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1013,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1195</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1021,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1505</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1029,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>4095</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1037,7 +794,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>3695</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1045,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1095</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1053,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1995</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1061,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>894</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1069,7 +826,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1295</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1077,7 +834,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>3395</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1085,7 +842,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1495</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1093,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>4295</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1101,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>2395</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1109,7 +866,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1390</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1117,7 +874,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>1315</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1125,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>1270</v>
+        <v>12994</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1133,7 +890,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>4295</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1141,7 +898,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>4495</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1149,7 +906,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>1390</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1157,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>1895</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1165,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>1390</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1173,7 +930,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>1695</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1181,7 +938,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>1450</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1197,7 +954,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>1395</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1205,612 +962,612 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>1495</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>3695</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>1795</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>1795</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>4195</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>994</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>3790</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>1595</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>3795</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>2295</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>2495</v>
+        <v>24985</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>1410</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>1795</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>2195</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>1095</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>1895</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>1495</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>1395</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>1625</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>4295</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>1195</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>1845</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>1395</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>1695</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>1395</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>1895</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>1695</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>2290</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>1945</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>1195</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>1095</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>4265</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>1045</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>4650</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>1295</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>2195</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>3995</v>
+        <v>24195</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>1495</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>2045</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>1595</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>1385</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>1695</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>994</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>1795</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>1895</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>1495</v>
+        <v>16985</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>994</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>1695</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>1195</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>1110</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>1645</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>2555</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>2595</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>1795</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>1295</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>1795</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>2295</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>1395</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>1100</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>2325</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>1495</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>1505</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>1595</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>1000</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B102" t="n">
-        <v>1095</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B103" t="n">
-        <v>1895</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B104" t="n">
-        <v>1445</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B105" t="n">
-        <v>1045</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>1495</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B107" t="n">
-        <v>1895</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B108" t="n">
-        <v>2795</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B109" t="n">
-        <v>3390</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B110" t="n">
-        <v>1295</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B111" t="n">
-        <v>1595</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B112" t="n">
-        <v>1295</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B113" t="n">
-        <v>2695</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B114" t="n">
         <v>1695</v>
@@ -1818,698 +1575,3058 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>1245</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B116" t="n">
-        <v>1195</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B117" t="n">
-        <v>1495</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B118" t="n">
-        <v>2095</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B119" t="n">
-        <v>1245</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B120" t="n">
-        <v>1695</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="B121" t="n">
-        <v>1095</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="B122" t="n">
-        <v>1395</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="B123" t="n">
-        <v>1845</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="B124" t="n">
-        <v>1800</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B125" t="n">
-        <v>1695</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="B126" t="n">
-        <v>1795</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B127" t="n">
-        <v>1789</v>
+        <v>12994</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B128" t="n">
-        <v>1620</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B129" t="n">
-        <v>1495</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="B130" t="n">
-        <v>1945</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B131" t="n">
-        <v>1495</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="B132" t="n">
-        <v>1195</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="B133" t="n">
-        <v>1995</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B134" t="n">
-        <v>1795</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="B135" t="n">
-        <v>1545</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B136" t="n">
-        <v>1145</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B137" t="n">
-        <v>1845</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="B138" t="n">
-        <v>1095</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="B139" t="n">
-        <v>1395</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B140" t="n">
-        <v>1660</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="B141" t="n">
-        <v>1575</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B142" t="n">
-        <v>1495</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="B143" t="n">
-        <v>994</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B144" t="n">
-        <v>1595</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B145" t="n">
-        <v>1995</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="B146" t="n">
-        <v>1100</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="B147" t="n">
-        <v>1495</v>
+        <v>24985</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="B148" t="n">
-        <v>1200</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="B149" t="n">
-        <v>1395</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="B150" t="n">
-        <v>1395</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="B151" t="n">
-        <v>1895</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B152" t="n">
-        <v>3245</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="B153" t="n">
-        <v>825</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B154" t="n">
-        <v>3795</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B155" t="n">
-        <v>1595</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="B156" t="n">
-        <v>4495</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="B157" t="n">
-        <v>1895</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="B158" t="n">
-        <v>1895</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B159" t="n">
-        <v>1295</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B160" t="n">
-        <v>835</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B161" t="n">
-        <v>1095</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B162" t="n">
-        <v>894</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="B163" t="n">
-        <v>2095</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="B164" t="n">
-        <v>994</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B165" t="n">
-        <v>994</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="B166" t="n">
-        <v>1295</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B167" t="n">
-        <v>750</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="B168" t="n">
-        <v>1595</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B169" t="n">
-        <v>800</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="B170" t="n">
-        <v>1145</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B171" t="n">
-        <v>1390</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="B172" t="n">
-        <v>1800</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="B173" t="n">
-        <v>2220</v>
+        <v>24195</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="B174" t="n">
-        <v>894</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B175" t="n">
-        <v>1895</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="B176" t="n">
-        <v>1595</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="B177" t="n">
-        <v>1995</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="B178" t="n">
-        <v>1390</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="B179" t="n">
-        <v>1295</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="B180" t="n">
-        <v>1395</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="B181" t="n">
-        <v>1095</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="B182" t="n">
-        <v>850</v>
+        <v>16985</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="B183" t="n">
-        <v>1795</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="B184" t="n">
-        <v>790</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="B185" t="n">
-        <v>1295</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="B186" t="n">
-        <v>1395</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="B187" t="n">
-        <v>1895</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="B188" t="n">
-        <v>1695</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="B189" t="n">
-        <v>1995</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="B190" t="n">
-        <v>2195</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="B191" t="n">
-        <v>2495</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B192" t="n">
-        <v>1195</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="B193" t="n">
-        <v>1295</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="B194" t="n">
-        <v>1195</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="B195" t="n">
-        <v>2295</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="B196" t="n">
-        <v>2295</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="B197" t="n">
-        <v>1595</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="B198" t="n">
-        <v>1420</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="B199" t="n">
-        <v>1595</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="B200" t="n">
-        <v>1995</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="B201" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="n">
         <v>1495</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>16</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>24</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>25</v>
+      </c>
+      <c r="B223" t="n">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>26</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>27</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" t="n">
+        <v>12994</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>29</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>31</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>32</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>33</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>34</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>35</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>36</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>37</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>38</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>39</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>40</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>41</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>42</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>43</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>45</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>47</v>
+      </c>
+      <c r="B245" t="n">
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>48</v>
+      </c>
+      <c r="B246" t="n">
+        <v>24985</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>49</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>50</v>
+      </c>
+      <c r="B248" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>51</v>
+      </c>
+      <c r="B249" t="n">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>52</v>
+      </c>
+      <c r="B250" t="n">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>53</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>54</v>
+      </c>
+      <c r="B252" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>56</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>57</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>59</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>60</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>61</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>62</v>
+      </c>
+      <c r="B260" t="n">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>63</v>
+      </c>
+      <c r="B261" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>64</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>65</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>66</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>67</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>68</v>
+      </c>
+      <c r="B266" t="n">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>69</v>
+      </c>
+      <c r="B267" t="n">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>70</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>71</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>72</v>
+      </c>
+      <c r="B270" t="n">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>73</v>
+      </c>
+      <c r="B271" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>74</v>
+      </c>
+      <c r="B272" t="n">
+        <v>24195</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>75</v>
+      </c>
+      <c r="B273" t="n">
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>76</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>77</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>78</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>79</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>80</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>81</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>82</v>
+      </c>
+      <c r="B280" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>83</v>
+      </c>
+      <c r="B281" t="n">
+        <v>16985</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>84</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>85</v>
+      </c>
+      <c r="B283" t="n">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>86</v>
+      </c>
+      <c r="B284" t="n">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>87</v>
+      </c>
+      <c r="B285" t="n">
+        <v>15985</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>88</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>89</v>
+      </c>
+      <c r="B287" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>90</v>
+      </c>
+      <c r="B288" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>91</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>92</v>
+      </c>
+      <c r="B290" t="n">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>93</v>
+      </c>
+      <c r="B291" t="n">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>94</v>
+      </c>
+      <c r="B292" t="n">
+        <v>11985</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>95</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>96</v>
+      </c>
+      <c r="B294" t="n">
+        <v>12485</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>97</v>
+      </c>
+      <c r="B295" t="n">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>98</v>
+      </c>
+      <c r="B296" t="n">
+        <v>9485</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>99</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>100</v>
+      </c>
+      <c r="B298" t="n">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>13</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>16</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>17</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>18</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>19</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>20</v>
+      </c>
+      <c r="B317" t="n">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>21</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>22</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>23</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>24</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>25</v>
+      </c>
+      <c r="B322" t="n">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>26</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>27</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>28</v>
+      </c>
+      <c r="B325" t="n">
+        <v>12994</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>29</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>30</v>
+      </c>
+      <c r="B327" t="n">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>31</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>32</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>33</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>34</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>35</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>36</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>37</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>38</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>39</v>
+      </c>
+      <c r="B336" t="n">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>40</v>
+      </c>
+      <c r="B337" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>41</v>
+      </c>
+      <c r="B338" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>42</v>
+      </c>
+      <c r="B339" t="n">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>43</v>
+      </c>
+      <c r="B340" t="n">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>44</v>
+      </c>
+      <c r="B341" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>45</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>46</v>
+      </c>
+      <c r="B343" t="n">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>47</v>
+      </c>
+      <c r="B344" t="n">
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>48</v>
+      </c>
+      <c r="B345" t="n">
+        <v>24985</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>49</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>50</v>
+      </c>
+      <c r="B347" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>51</v>
+      </c>
+      <c r="B348" t="n">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>52</v>
+      </c>
+      <c r="B349" t="n">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>53</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>54</v>
+      </c>
+      <c r="B351" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>55</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>56</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>57</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>58</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>59</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>60</v>
+      </c>
+      <c r="B357" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>61</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>62</v>
+      </c>
+      <c r="B359" t="n">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>63</v>
+      </c>
+      <c r="B360" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>64</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>65</v>
+      </c>
+      <c r="B362" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>66</v>
+      </c>
+      <c r="B363" t="n">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>67</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>68</v>
+      </c>
+      <c r="B365" t="n">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>69</v>
+      </c>
+      <c r="B366" t="n">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>70</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>71</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>72</v>
+      </c>
+      <c r="B369" t="n">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>73</v>
+      </c>
+      <c r="B370" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>74</v>
+      </c>
+      <c r="B371" t="n">
+        <v>24195</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>75</v>
+      </c>
+      <c r="B372" t="n">
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>76</v>
+      </c>
+      <c r="B373" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>77</v>
+      </c>
+      <c r="B374" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>78</v>
+      </c>
+      <c r="B375" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>79</v>
+      </c>
+      <c r="B376" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>80</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>81</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>82</v>
+      </c>
+      <c r="B379" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>83</v>
+      </c>
+      <c r="B380" t="n">
+        <v>16985</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>84</v>
+      </c>
+      <c r="B381" t="n">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>85</v>
+      </c>
+      <c r="B382" t="n">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>86</v>
+      </c>
+      <c r="B383" t="n">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>87</v>
+      </c>
+      <c r="B384" t="n">
+        <v>15985</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>88</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>89</v>
+      </c>
+      <c r="B386" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>90</v>
+      </c>
+      <c r="B387" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>91</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>92</v>
+      </c>
+      <c r="B389" t="n">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>93</v>
+      </c>
+      <c r="B390" t="n">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>94</v>
+      </c>
+      <c r="B391" t="n">
+        <v>11985</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>95</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>96</v>
+      </c>
+      <c r="B393" t="n">
+        <v>12485</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>97</v>
+      </c>
+      <c r="B394" t="n">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>98</v>
+      </c>
+      <c r="B395" t="n">
+        <v>9485</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>99</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>100</v>
+      </c>
+      <c r="B397" t="n">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>2</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>7</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>8</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>11</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>12</v>
+      </c>
+      <c r="B408" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>13</v>
+      </c>
+      <c r="B409" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>14</v>
+      </c>
+      <c r="B410" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>15</v>
+      </c>
+      <c r="B411" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>16</v>
+      </c>
+      <c r="B412" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>17</v>
+      </c>
+      <c r="B413" t="n">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>19</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>20</v>
+      </c>
+      <c r="B416" t="n">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>21</v>
+      </c>
+      <c r="B417" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>22</v>
+      </c>
+      <c r="B418" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>23</v>
+      </c>
+      <c r="B419" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>24</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>25</v>
+      </c>
+      <c r="B421" t="n">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>26</v>
+      </c>
+      <c r="B422" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>27</v>
+      </c>
+      <c r="B423" t="n">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>28</v>
+      </c>
+      <c r="B424" t="n">
+        <v>12994</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>29</v>
+      </c>
+      <c r="B425" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>30</v>
+      </c>
+      <c r="B426" t="n">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>31</v>
+      </c>
+      <c r="B427" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>32</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>33</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>34</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>35</v>
+      </c>
+      <c r="B431" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>36</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>37</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>38</v>
+      </c>
+      <c r="B434" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>39</v>
+      </c>
+      <c r="B435" t="n">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>40</v>
+      </c>
+      <c r="B436" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>41</v>
+      </c>
+      <c r="B437" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>42</v>
+      </c>
+      <c r="B438" t="n">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>43</v>
+      </c>
+      <c r="B439" t="n">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>44</v>
+      </c>
+      <c r="B440" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>45</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>46</v>
+      </c>
+      <c r="B442" t="n">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>47</v>
+      </c>
+      <c r="B443" t="n">
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>48</v>
+      </c>
+      <c r="B444" t="n">
+        <v>24985</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>49</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>50</v>
+      </c>
+      <c r="B446" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>51</v>
+      </c>
+      <c r="B447" t="n">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>52</v>
+      </c>
+      <c r="B448" t="n">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>53</v>
+      </c>
+      <c r="B449" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>54</v>
+      </c>
+      <c r="B450" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>55</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>56</v>
+      </c>
+      <c r="B452" t="n">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>57</v>
+      </c>
+      <c r="B453" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>58</v>
+      </c>
+      <c r="B454" t="n">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>59</v>
+      </c>
+      <c r="B455" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>60</v>
+      </c>
+      <c r="B456" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>61</v>
+      </c>
+      <c r="B457" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>62</v>
+      </c>
+      <c r="B458" t="n">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>63</v>
+      </c>
+      <c r="B459" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>64</v>
+      </c>
+      <c r="B460" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>65</v>
+      </c>
+      <c r="B461" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>66</v>
+      </c>
+      <c r="B462" t="n">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>67</v>
+      </c>
+      <c r="B463" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>68</v>
+      </c>
+      <c r="B464" t="n">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>69</v>
+      </c>
+      <c r="B465" t="n">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>70</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>71</v>
+      </c>
+      <c r="B467" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>72</v>
+      </c>
+      <c r="B468" t="n">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>73</v>
+      </c>
+      <c r="B469" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>74</v>
+      </c>
+      <c r="B470" t="n">
+        <v>24195</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>75</v>
+      </c>
+      <c r="B471" t="n">
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>76</v>
+      </c>
+      <c r="B472" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>77</v>
+      </c>
+      <c r="B473" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>78</v>
+      </c>
+      <c r="B474" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>79</v>
+      </c>
+      <c r="B475" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>80</v>
+      </c>
+      <c r="B476" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>81</v>
+      </c>
+      <c r="B477" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>82</v>
+      </c>
+      <c r="B478" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>83</v>
+      </c>
+      <c r="B479" t="n">
+        <v>16985</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>84</v>
+      </c>
+      <c r="B480" t="n">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>85</v>
+      </c>
+      <c r="B481" t="n">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>86</v>
+      </c>
+      <c r="B482" t="n">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>87</v>
+      </c>
+      <c r="B483" t="n">
+        <v>15985</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>88</v>
+      </c>
+      <c r="B484" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>89</v>
+      </c>
+      <c r="B485" t="n">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>90</v>
+      </c>
+      <c r="B486" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>91</v>
+      </c>
+      <c r="B487" t="n">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>92</v>
+      </c>
+      <c r="B488" t="n">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>93</v>
+      </c>
+      <c r="B489" t="n">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>94</v>
+      </c>
+      <c r="B490" t="n">
+        <v>11985</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>95</v>
+      </c>
+      <c r="B491" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>96</v>
+      </c>
+      <c r="B492" t="n">
+        <v>12485</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>97</v>
+      </c>
+      <c r="B493" t="n">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>98</v>
+      </c>
+      <c r="B494" t="n">
+        <v>9485</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>99</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>100</v>
+      </c>
+      <c r="B496" t="n">
+        <v>47500</v>
       </c>
     </row>
   </sheetData>

--- a/wineData.xlsx
+++ b/wineData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="380">
   <si>
     <t>name</t>
   </si>
@@ -56,12 +56,12 @@
     <t>Chateau Puyfromage Francs Cotes de Bordeaux Aoc</t>
   </si>
   <si>
+    <t>Chateau Fongaban Castillon Aoc Bordeaux Organic</t>
+  </si>
+  <si>
     <t>A de Luze &amp; Fils Chateau Bel Air Bordeaux Aoc</t>
   </si>
   <si>
-    <t>Chateau Fongaban Castillon Aoc Bordeaux Organic</t>
-  </si>
-  <si>
     <t>Château Hauchat 2015</t>
   </si>
   <si>
@@ -89,12 +89,12 @@
     <t>Chateau Canteloup, Medoc Aoc</t>
   </si>
   <si>
+    <t>Château Barde-Haut 2006</t>
+  </si>
+  <si>
     <t>Chateau Graves de Rabion Saint Emilion, Aoc Red</t>
   </si>
   <si>
-    <t>Château Barde-Haut 2006</t>
-  </si>
-  <si>
     <t>Château Guillou 2015</t>
   </si>
   <si>
@@ -125,42 +125,42 @@
     <t>Premius Crémant de Bordeaux</t>
   </si>
   <si>
+    <t>Plais de L'Obriere Bordeaux Superieur Kpm 2015</t>
+  </si>
+  <si>
+    <t>Les Charmes de Magnol 2014</t>
+  </si>
+  <si>
     <t>Château Joinin 2015</t>
   </si>
   <si>
-    <t>Plais de L'Obriere Bordeaux Superieur Kpm 2015</t>
-  </si>
-  <si>
-    <t>Les Charmes de Magnol 2014</t>
-  </si>
-  <si>
     <t>Château Gazin-Rocquencourt 2012</t>
   </si>
   <si>
     <t>Château Mongravey 2014</t>
   </si>
   <si>
+    <t>Château Sérilhan 2012</t>
+  </si>
+  <si>
     <t>Château Tour de Pez 2008</t>
   </si>
   <si>
-    <t>Château Sérilhan 2012</t>
-  </si>
-  <si>
     <t>Château Brown 2012</t>
   </si>
   <si>
+    <t>Château Chapelle D'Aliénor 2014</t>
+  </si>
+  <si>
     <t>Château Des Demoiselles &amp; Château Larroque</t>
   </si>
   <si>
-    <t>Château Chapelle D'Aliénor 2014</t>
+    <t>Ségla 2010</t>
   </si>
   <si>
     <t>Château La Croix Du Casse 2009</t>
   </si>
   <si>
-    <t>Ségla 2010</t>
-  </si>
-  <si>
     <t>Château Cos D'Estournel 2011</t>
   </si>
   <si>
@@ -185,66 +185,69 @@
     <t>Château Sénéjac</t>
   </si>
   <si>
+    <t>Château Francs Magnus 2015</t>
+  </si>
+  <si>
     <t>Château Marquis de Mons 2010</t>
   </si>
   <si>
-    <t>Château Francs Magnus 2015</t>
-  </si>
-  <si>
     <t>Château Gaby 2011</t>
   </si>
   <si>
     <t>Clos Des Moiselles 2014</t>
   </si>
   <si>
+    <t>Domaine de Chevalier Clos Des Lunes Lune D'Argent Blanc 2014</t>
+  </si>
+  <si>
     <t>Château Barde-Haut 2012</t>
   </si>
   <si>
     <t>Château Pierre de Montignac 2009</t>
   </si>
   <si>
+    <t>Clos Du Marquis 2003</t>
+  </si>
+  <si>
     <t>Château Clos de Sarpe 1996</t>
   </si>
   <si>
-    <t>Clos Du Marquis 2003</t>
-  </si>
-  <si>
     <t>Château Du Carillon 2010</t>
   </si>
   <si>
+    <t>Château Les Justices 2014</t>
+  </si>
+  <si>
+    <t>Château Tertre Daugay 2008</t>
+  </si>
+  <si>
+    <t>Château La Tour Carnet 2010</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville Baron 2012</t>
+  </si>
+  <si>
+    <t>Charme D'Alienor Crémant de Bordeaux</t>
+  </si>
+  <si>
     <t>Château Barde-Haut 2004</t>
   </si>
   <si>
-    <t>Château Tertre Daugay 2008</t>
-  </si>
-  <si>
-    <t>Château Les Justices 2014</t>
-  </si>
-  <si>
-    <t>Château Pichon-Longueville Baron 2012</t>
-  </si>
-  <si>
-    <t>Château La Tour Carnet 2010</t>
-  </si>
-  <si>
-    <t>Charme D'Alienor Crémant de Bordeaux</t>
+    <t>Château Verdignan 2005</t>
+  </si>
+  <si>
+    <t>Château Armens 2010</t>
+  </si>
+  <si>
+    <t>La Chapelle de La Mission Haut-Brion 2009</t>
+  </si>
+  <si>
+    <t>Château Potensac 2005</t>
   </si>
   <si>
     <t>Château Teyssier 2012</t>
   </si>
   <si>
-    <t>Château Verdignan 2005</t>
-  </si>
-  <si>
-    <t>Château Armens 2010</t>
-  </si>
-  <si>
-    <t>La Chapelle de La Mission Haut-Brion 2009</t>
-  </si>
-  <si>
-    <t>Château Potensac 2005</t>
-  </si>
-  <si>
     <t>Château Coufran 2014</t>
   </si>
   <si>
@@ -257,12 +260,12 @@
     <t>Château Citran 2014</t>
   </si>
   <si>
+    <t>Château Le Grand Verdus Merlot / Cabernet Sauvignon 2014</t>
+  </si>
+  <si>
     <t>Château de Marsan 2014</t>
   </si>
   <si>
-    <t>Château Le Grand Verdus Merlot / Cabernet Sauvignon 2014</t>
-  </si>
-  <si>
     <t>Les Pagodes de Cos 2010</t>
   </si>
   <si>
@@ -275,21 +278,21 @@
     <t>Château Pontet-Canet 2013</t>
   </si>
   <si>
+    <t>Château de Lamarque 2010</t>
+  </si>
+  <si>
+    <t>La Clarté de Haut Brion Blanc 2013</t>
+  </si>
+  <si>
     <t>Domaine de Chevalier 2008</t>
   </si>
   <si>
-    <t>La Clarté de Haut Brion Blanc 2013</t>
+    <t>Château Ferrière 2000</t>
   </si>
   <si>
     <t>Chateau Michel de Vert Lussac Saint-Emilion 2014</t>
   </si>
   <si>
-    <t>Château de Lamarque 2010</t>
-  </si>
-  <si>
-    <t>Château Ferrière 2000</t>
-  </si>
-  <si>
     <t>Chateau Camille Gaucheraud Sauvignon Blanc 2015</t>
   </si>
   <si>
@@ -299,25 +302,859 @@
     <t>Château Smith Haut Lafitte 2014</t>
   </si>
   <si>
+    <t>Château Gazin 2014</t>
+  </si>
+  <si>
+    <t>Château Rieussec 2010</t>
+  </si>
+  <si>
+    <t>Château Sainte-Marie Vieilles Vignes Entre-Deux-Mers 2015</t>
+  </si>
+  <si>
+    <t>Lillet Rouge</t>
+  </si>
+  <si>
+    <t>Château Talbot 2014</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville Baron 2010</t>
+  </si>
+  <si>
     <t>Château Gruaud Larose 2014</t>
   </si>
   <si>
-    <t>Château Sainte-Marie Vieilles Vignes Entre-Deux-Mers 2015</t>
-  </si>
-  <si>
-    <t>Château Gazin 2014</t>
-  </si>
-  <si>
-    <t>Château Rieussec 2010</t>
-  </si>
-  <si>
-    <t>Château Talbot 2014</t>
-  </si>
-  <si>
-    <t>Lillet Rouge</t>
-  </si>
-  <si>
-    <t>Château Pichon-Longueville Baron 2010</t>
+    <t>Château Figeac 2000</t>
+  </si>
+  <si>
+    <t>Château Cheval Blanc 2011</t>
+  </si>
+  <si>
+    <t>Château La Confession 2012</t>
+  </si>
+  <si>
+    <t>Château Les Remparts de Bel-Air Kpm</t>
+  </si>
+  <si>
+    <t>Château Roquefort Blanc 2016</t>
+  </si>
+  <si>
+    <t>Château La Lagune 2010</t>
+  </si>
+  <si>
+    <t>Château Rol Valentin 2004</t>
+  </si>
+  <si>
+    <t>Château de France 2014</t>
+  </si>
+  <si>
+    <t>Château Malartic-Lagravière 2010</t>
+  </si>
+  <si>
+    <t>Château Ausone 2013</t>
+  </si>
+  <si>
+    <t>Château La Mondotte 2013</t>
+  </si>
+  <si>
+    <t>Château Haut-Bailly 2011</t>
+  </si>
+  <si>
+    <t>Château D'Armailhac 2005</t>
+  </si>
+  <si>
+    <t>Châteaux Vieux Chevrol 2010</t>
+  </si>
+  <si>
+    <t>Château Grand Mouëys 2015</t>
+  </si>
+  <si>
+    <t>Château Branaire-Ducru 2009</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion 2005</t>
+  </si>
+  <si>
+    <t>Château Haut-Bailly 2014</t>
+  </si>
+  <si>
+    <t>Château Brane-Cantenac 2009</t>
+  </si>
+  <si>
+    <t>Château Lafleur 2007</t>
+  </si>
+  <si>
+    <t>Château Phélan-Ségur 2014</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion 2011</t>
+  </si>
+  <si>
+    <t>Vieux Château Certan 2013</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2007</t>
+  </si>
+  <si>
+    <t>Château Le Conseiller 2015</t>
+  </si>
+  <si>
+    <t>Le Merle de Peby Faugeres Saint Emilion Grand Cru 2011</t>
+  </si>
+  <si>
+    <t>Château Pape Clément Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château Mouton Rothschild 2011</t>
+  </si>
+  <si>
+    <t>Haut Faugeres Saint Emilion Grand Cru 2011</t>
+  </si>
+  <si>
+    <t>Château Grand-Puy Ducasse 2014</t>
+  </si>
+  <si>
+    <t>Château de Lamarque 2014</t>
+  </si>
+  <si>
+    <t>Château Larcis Ducasse 2009</t>
+  </si>
+  <si>
+    <t>Château Laville Haut-Brion Blanc 2007</t>
+  </si>
+  <si>
+    <t>Clos Du Marquis 2009</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2005</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château Clarke 2010</t>
+  </si>
+  <si>
+    <t>Château Kirwan 2014</t>
+  </si>
+  <si>
+    <t>Chateau La Mission Haut Brion 1995</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2010</t>
+  </si>
+  <si>
+    <t>Château Croix de Labrie 2003</t>
+  </si>
+  <si>
+    <t>Château Latour 2001</t>
+  </si>
+  <si>
+    <t>Château Haut-Bergey 2004</t>
+  </si>
+  <si>
+    <t>Espérance de Trotanoy 2014</t>
+  </si>
+  <si>
+    <t>Château Pey La Tour Réserve Du Château 2012</t>
+  </si>
+  <si>
+    <t>Annonce de Belair Monange 2014</t>
+  </si>
+  <si>
+    <t>Château Pontet-Canet 2011</t>
+  </si>
+  <si>
+    <t>Chateau Brown Blanc 2012</t>
+  </si>
+  <si>
+    <t>Château D'Issan 2012</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut Brion 2008</t>
+  </si>
+  <si>
+    <t>Les Vacances de Monsieur Merlot 2015</t>
+  </si>
+  <si>
+    <t>Château L'Hermitage 2005</t>
+  </si>
+  <si>
+    <t>Chateau Busquet Lussac-Saint-Emilion 2014</t>
+  </si>
+  <si>
+    <t>Chateau Pey-Bonhomme Les Tours 2015</t>
+  </si>
+  <si>
+    <t>Chateau de Chambrun Lalande de Pomerol 2010</t>
+  </si>
+  <si>
+    <t>Château Quinault L'Enclos 2001</t>
+  </si>
+  <si>
+    <t>Château Léoville Poyferré 2014</t>
+  </si>
+  <si>
+    <t>Château Malartic-Lagravière 2012</t>
+  </si>
+  <si>
+    <t>Légende Bordeaux Rouge 2015</t>
+  </si>
+  <si>
+    <t>Château Laforge 2010</t>
+  </si>
+  <si>
+    <t>Château Latour 2005</t>
+  </si>
+  <si>
+    <t>Château Bouscaut Blanc 2014</t>
+  </si>
+  <si>
+    <t>Château Bellevue Mondotte 2011</t>
+  </si>
+  <si>
+    <t>Château Ormes de Pez 2014</t>
+  </si>
+  <si>
+    <t>Chateau Des Moines Prestige 2014</t>
+  </si>
+  <si>
+    <t>Château Brown 2010</t>
+  </si>
+  <si>
+    <t>Château Clos de Sarpe 1998</t>
+  </si>
+  <si>
+    <t>Quintessence de Peybonhomme 2014</t>
+  </si>
+  <si>
+    <t>Château Branaire-Ducru 2014</t>
+  </si>
+  <si>
+    <t>Château Tronquoy-Lalande 2009</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2005</t>
+  </si>
+  <si>
+    <t>Château Lascombes 2014</t>
+  </si>
+  <si>
+    <t>Chateau Moulin de Grenet 2015</t>
+  </si>
+  <si>
+    <t>Château Cos D'Estournel 2010</t>
+  </si>
+  <si>
+    <t>Château Latour 2000</t>
+  </si>
+  <si>
+    <t>Château Malartic-Lagraviere Blanc 2009</t>
+  </si>
+  <si>
+    <t>Château Ducru-Beaucaillou 2013</t>
+  </si>
+  <si>
+    <t>Domaine de Chevalier Blanc 2014</t>
+  </si>
+  <si>
+    <t>Château Du Tertre 2014</t>
+  </si>
+  <si>
+    <t>Château Lafleur 2009</t>
+  </si>
+  <si>
+    <t>Château Des Demoiselles 2014</t>
+  </si>
+  <si>
+    <t>Château La Mondotte 2011</t>
+  </si>
+  <si>
+    <t>Château Suduiraut 2001</t>
+  </si>
+  <si>
+    <t>Château Pape Clément 2013</t>
+  </si>
+  <si>
+    <t>Château Le Bon Pasteur 2014</t>
+  </si>
+  <si>
+    <t>Château La Conseillante 2013</t>
+  </si>
+  <si>
+    <t>Château La Lagune 2014</t>
+  </si>
+  <si>
+    <t>Chateau Arnauld 2012</t>
+  </si>
+  <si>
+    <t>Clos L'Église 2013</t>
+  </si>
+  <si>
+    <t>Château Sigalas-Ribaud 2007</t>
+  </si>
+  <si>
+    <t>Château Coutet 2009</t>
+  </si>
+  <si>
+    <t>Clos Fourtet 2014</t>
+  </si>
+  <si>
+    <t>Chateau La Grolet Tete de Cuvee 2015</t>
+  </si>
+  <si>
+    <t>Château de Lionne 2015</t>
+  </si>
+  <si>
+    <t>Chateau Larose Perganson 2Cru Bourgeois 2008</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2007</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2009</t>
+  </si>
+  <si>
+    <t>Chateau Gloria 2012</t>
+  </si>
+  <si>
+    <t>Le Petit Mouton de Mouton Rothschild 2004</t>
+  </si>
+  <si>
+    <t>Château Beau-Séjour Bécot 2014</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion 2006</t>
+  </si>
+  <si>
+    <t>Château La Cabanne 2009</t>
+  </si>
+  <si>
+    <t>Château D'Armailhac 2014</t>
+  </si>
+  <si>
+    <t>Château Olivier 2014</t>
+  </si>
+  <si>
+    <t>Château Larmande 2010</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2012</t>
+  </si>
+  <si>
+    <t>Château Beychevelle 2014</t>
+  </si>
+  <si>
+    <t>Château Gloria 2014</t>
+  </si>
+  <si>
+    <t>Château Malescot Saint-Exupery 2012</t>
+  </si>
+  <si>
+    <t>Pavillon Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château Malescot St. Exupéry 2011</t>
+  </si>
+  <si>
+    <t>Château Pontet-Canet 2008</t>
+  </si>
+  <si>
+    <t>Bordeaux Collection 2010</t>
+  </si>
+  <si>
+    <t>Vieux Château Certan 2012</t>
+  </si>
+  <si>
+    <t>Château Malartic-Lagravière 2014</t>
+  </si>
+  <si>
+    <t>Château Ducru-Beaucaillou 1986</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2006</t>
+  </si>
+  <si>
+    <t>Domaine de Chevalier Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2013</t>
+  </si>
+  <si>
+    <t>La Chapelle de Lafaurie-Peyraguey 2009</t>
+  </si>
+  <si>
+    <t>Château Trotanoy</t>
+  </si>
+  <si>
+    <t>Château Plaisance 2011</t>
+  </si>
+  <si>
+    <t>Château L'Église-Clinet 2011</t>
+  </si>
+  <si>
+    <t>Château Clos Du Loup Cuvée Prestige 2010</t>
+  </si>
+  <si>
+    <t>Château Prieuré-Lichine 2009</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2007</t>
+  </si>
+  <si>
+    <t>Jp Chenet Pink Ice Mousseux</t>
+  </si>
+  <si>
+    <t>Château Latour-Martillac 2014</t>
+  </si>
+  <si>
+    <t>Lynsolence 2012</t>
+  </si>
+  <si>
+    <t>Château Haut Peyraud 2012</t>
+  </si>
+  <si>
+    <t>Domaine de Chevalier 2014</t>
+  </si>
+  <si>
+    <t>09 Beausejour Duffau-Lagarosse St. Emilion</t>
+  </si>
+  <si>
+    <t>Château Trotanoy 2013</t>
+  </si>
+  <si>
+    <t>Château Rahoul 2012</t>
+  </si>
+  <si>
+    <t>Château La Couspaude 2014</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2009</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2006</t>
+  </si>
+  <si>
+    <t>Château Lagrange 2014</t>
+  </si>
+  <si>
+    <t>Château Franc Mayne 2009</t>
+  </si>
+  <si>
+    <t>Château Maucaillou 2014</t>
+  </si>
+  <si>
+    <t>Château Grand-Puy-Lacoste 2012</t>
+  </si>
+  <si>
+    <t>Château La Gravette Lacombe 2012</t>
+  </si>
+  <si>
+    <t>Le Petit Grand Semillon-Sauvignon Bordeaux</t>
+  </si>
+  <si>
+    <t>Château Tour de Sarrail 2010</t>
+  </si>
+  <si>
+    <t>Château Beau-Site 2011</t>
+  </si>
+  <si>
+    <t>Château Magnol 2012</t>
+  </si>
+  <si>
+    <t>Château Léoville Barton 2014</t>
+  </si>
+  <si>
+    <t>Château Gaudin 2010</t>
+  </si>
+  <si>
+    <t>Domaine de Chevalier Blanc 2011</t>
+  </si>
+  <si>
+    <t>Château Langoa Barton 2014</t>
+  </si>
+  <si>
+    <t>Duluc de Branaire-Ducru 2010</t>
+  </si>
+  <si>
+    <t>Château Pipeau 2006</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville-Baron 2014</t>
+  </si>
+  <si>
+    <t>Y D'Yquem 2013</t>
+  </si>
+  <si>
+    <t>Château La Providence 2011</t>
+  </si>
+  <si>
+    <t>Château Giscours 2000</t>
+  </si>
+  <si>
+    <t>Château Valandraud 2005</t>
+  </si>
+  <si>
+    <t>Château Léoville Poyferre 2010</t>
+  </si>
+  <si>
+    <t>Château Larrivet Haut-Brion 2014</t>
+  </si>
+  <si>
+    <t>Y D'Yquem 2011</t>
+  </si>
+  <si>
+    <t>Château Gilette Crème de Tête 1982</t>
+  </si>
+  <si>
+    <t>Château Margaux 2001</t>
+  </si>
+  <si>
+    <t>Château de Panigon 2013</t>
+  </si>
+  <si>
+    <t>Château Cheval Blanc 2010</t>
+  </si>
+  <si>
+    <t>Chateau Haut Pougnan Entre-Deux-Mers 2015</t>
+  </si>
+  <si>
+    <t>Château Ausone 2012</t>
+  </si>
+  <si>
+    <t>Château Le Doyenné 2011</t>
+  </si>
+  <si>
+    <t>Château Francs Magnus 2014</t>
+  </si>
+  <si>
+    <t>Château Tour Blanche</t>
+  </si>
+  <si>
+    <t>Château Bellegrave 2000</t>
+  </si>
+  <si>
+    <t>Château Faugères Cuvée Péby 2011</t>
+  </si>
+  <si>
+    <t>Château Climens 2010</t>
+  </si>
+  <si>
+    <t>Château Latour 2011</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion 1998</t>
+  </si>
+  <si>
+    <t>Château Ausone 2010</t>
+  </si>
+  <si>
+    <t>Château La Rose Perrière 2008</t>
+  </si>
+  <si>
+    <t>Château Bélair-Monange 2013</t>
+  </si>
+  <si>
+    <t>Château Pétrus 1999</t>
+  </si>
+  <si>
+    <t>Château Desmirail 2014</t>
+  </si>
+  <si>
+    <t>Château Margaux 2011</t>
+  </si>
+  <si>
+    <t>Château La Dominique 2010</t>
+  </si>
+  <si>
+    <t>Château Bellevue Figeac 2014</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2011</t>
+  </si>
+  <si>
+    <t>Château Haut Brisson 2010</t>
+  </si>
+  <si>
+    <t>Château Laroque 2010</t>
+  </si>
+  <si>
+    <t>Château de Fieuzal 2014</t>
+  </si>
+  <si>
+    <t>Château Lynch-Moussas 2014</t>
+  </si>
+  <si>
+    <t>Château Clerc Milon 2014</t>
+  </si>
+  <si>
+    <t>Chapelle D'Ausone 2010</t>
+  </si>
+  <si>
+    <t>Haut-Brion Blanc 2007</t>
+  </si>
+  <si>
+    <t>Château Lafleur 2011</t>
+  </si>
+  <si>
+    <t>Haut-Bailly 2004</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2011</t>
+  </si>
+  <si>
+    <t>Château Joanin Bécot 2006</t>
+  </si>
+  <si>
+    <t>Château Léoville Poyferré 2009</t>
+  </si>
+  <si>
+    <t>Cap Royal Rouge 2014</t>
+  </si>
+  <si>
+    <t>Clarence Dillon Clarendelle Red 2012</t>
+  </si>
+  <si>
+    <t>Château Goulée 2011</t>
+  </si>
+  <si>
+    <t>Pavillon Blanc 2012</t>
+  </si>
+  <si>
+    <t>Château Monconseil Gazin 2014</t>
+  </si>
+  <si>
+    <t>Château Pétrus 1998</t>
+  </si>
+  <si>
+    <t>Château Guiraud 2014</t>
+  </si>
+  <si>
+    <t>Château Pavie Decesse 2011</t>
+  </si>
+  <si>
+    <t>Vieux Château Certan 2010</t>
+  </si>
+  <si>
+    <t>Château Ausone 2009</t>
+  </si>
+  <si>
+    <t>Château Clinet 2011</t>
+  </si>
+  <si>
+    <t>Château de Malle 1997</t>
+  </si>
+  <si>
+    <t>Château Margaux 2010</t>
+  </si>
+  <si>
+    <t>Château Branon 2011</t>
+  </si>
+  <si>
+    <t>Légende Bordeaux Blanc 2015</t>
+  </si>
+  <si>
+    <t>Chateau Haut-Piquat 2010</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville-Baron 2013</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2013</t>
+  </si>
+  <si>
+    <t>Chateau Cos D'Estournel Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2010</t>
+  </si>
+  <si>
+    <t>Château Malartic-Lagravière Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château Blaignan 2010</t>
+  </si>
+  <si>
+    <t>Château Palmer 2000</t>
+  </si>
+  <si>
+    <t>Château Lagrange 2010</t>
+  </si>
+  <si>
+    <t>Le Dôme 2012</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2011</t>
+  </si>
+  <si>
+    <t>Château L'Espérance 2010</t>
+  </si>
+  <si>
+    <t>Christian Moueix Merlot</t>
+  </si>
+  <si>
+    <t>Château Pape Clément Blanc 2011</t>
+  </si>
+  <si>
+    <t>Château Langlais 2000</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2010</t>
+  </si>
+  <si>
+    <t>Laville-Haut-Brion Blanc</t>
+  </si>
+  <si>
+    <t>Château Vrai Caillou 2014</t>
+  </si>
+  <si>
+    <t>Christian Moueix Saint-Émilion 2012</t>
+  </si>
+  <si>
+    <t>Château Poujeaux 2014</t>
+  </si>
+  <si>
+    <t>Château Haut-Vignoble Seguin 2012</t>
+  </si>
+  <si>
+    <t>Clarence Dillon Clarendelle Blanc 2014</t>
+  </si>
+  <si>
+    <t>Château Hosanna 2011</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 1986</t>
+  </si>
+  <si>
+    <t>Chateau Cantenac Selection Madame 2014</t>
+  </si>
+  <si>
+    <t>Clos Du Marquis 2013</t>
+  </si>
+  <si>
+    <t>Clos Du Moulin 2012</t>
+  </si>
+  <si>
+    <t>16 Bordeaux Chateau Bellerives</t>
+  </si>
+  <si>
+    <t>Chateau de Valandraud</t>
+  </si>
+  <si>
+    <t>Château Malartic-Lagravière Pessac-Léognan</t>
+  </si>
+  <si>
+    <t>Château L'Évangile 2011</t>
+  </si>
+  <si>
+    <t>Château Troplong Mondot 2013</t>
+  </si>
+  <si>
+    <t>Château Pontet-Canet 2012</t>
+  </si>
+  <si>
+    <t>Château Vignol Blanc 2015</t>
+  </si>
+  <si>
+    <t>Château Thieuley Francis Courselle Blanc 2010</t>
+  </si>
+  <si>
+    <t>Château Peymelon 2006</t>
+  </si>
+  <si>
+    <t>Château Fonreaud 2010</t>
+  </si>
+  <si>
+    <t>Château La Conseillante 2011</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion Blanc 2012</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 1990</t>
+  </si>
+  <si>
+    <t>Château Clos Haut-Peyraguey 2013</t>
+  </si>
+  <si>
+    <t>Château Tour Baladoz 2009</t>
+  </si>
+  <si>
+    <t>Château Grand-Puy-Lacoste 2013</t>
+  </si>
+  <si>
+    <t>Château Roc de Levraut 2014</t>
+  </si>
+  <si>
+    <t>Château Suduiraut 2003</t>
+  </si>
+  <si>
+    <t>Château Beauséjour Hostens 2010</t>
+  </si>
+  <si>
+    <t>Château Canon 2014</t>
+  </si>
+  <si>
+    <t>Château Lagrange 2012</t>
+  </si>
+  <si>
+    <t>Château La Vieille Cure</t>
+  </si>
+  <si>
+    <t>Château Recougne 2012</t>
+  </si>
+  <si>
+    <t>Discover the Wines of Bordeaux Dvd</t>
+  </si>
+  <si>
+    <t>Château Capbern Gasqueton 2009</t>
+  </si>
+  <si>
+    <t>Chateau Larose Perganson 2006</t>
+  </si>
+  <si>
+    <t>Ma Verite Gerard Depardieu</t>
+  </si>
+  <si>
+    <t>Château Rauzan-Ségla 2014</t>
+  </si>
+  <si>
+    <t>Château Fombrauge</t>
+  </si>
+  <si>
+    <t>Chateau Larose Trintaudon Haut-Medoc 2014</t>
+  </si>
+  <si>
+    <t>Barons Edmond and Benjamin de Rothschild Kpm</t>
+  </si>
+  <si>
+    <t>Château La Rose Sarron</t>
+  </si>
+  <si>
+    <t>Moulin de Grenet</t>
+  </si>
+  <si>
+    <t>Château Bellegrave Du Poujeau</t>
+  </si>
+  <si>
+    <t>Château Puygueraud</t>
+  </si>
+  <si>
+    <t>Calvet Beaujolais Nouveau</t>
+  </si>
+  <si>
+    <t>Château Lanessan</t>
+  </si>
+  <si>
+    <t>Château de Chambrun</t>
+  </si>
+  <si>
+    <t>Bad Boy</t>
+  </si>
+  <si>
+    <t>Chateau La Grolet Le Plateau 2015</t>
+  </si>
+  <si>
+    <t>Château Sainte Marie Alios</t>
   </si>
 </sst>
 </file>
@@ -653,7 +1490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1395</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -770,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1695</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -850,7 +1687,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2105</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -858,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>7395</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -946,7 +1783,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>1495</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -962,7 +1799,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>1995</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -986,7 +1823,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>4495</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -994,7 +1831,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>3795</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1010,7 +1847,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>3995</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1018,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>2195</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1026,7 +1863,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>8300</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1034,7 +1871,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>6995</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1106,7 +1943,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>3795</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1114,7 +1951,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>1595</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1138,7 +1975,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>5400</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1146,7 +1983,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>2395</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1154,7 +1991,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>5595</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1170,7 +2007,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>2395</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1178,7 +2015,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>5800</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1186,7 +2023,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>5395</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1194,7 +2031,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>3000</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1202,7 +2039,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>25500</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1210,7 +2047,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>8700</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1226,7 +2063,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>2395</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1266,7 +2103,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>3485</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1274,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>5600</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1282,7 +2119,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>3995</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1290,7 +2127,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>3485</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1298,7 +2135,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>1795</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1314,7 +2151,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>13000</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1322,7 +2159,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>16985</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1330,7 +2167,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>5995</v>
+        <v>16985</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1338,7 +2175,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>14985</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1346,7 +2183,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>14300</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1354,7 +2191,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>15985</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1362,7 +2199,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>2295</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1370,7 +2207,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>3995</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1386,7 +2223,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>1685</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1394,7 +2231,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>32500</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1402,7 +2239,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>14985</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1410,7 +2247,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>11985</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1418,7 +2255,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>1495</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1426,7 +2263,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>12485</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1434,7 +2271,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>8795</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1442,7 +2279,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>9485</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1450,7 +2287,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>1870</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1463,1255 +2300,1255 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>1575</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1695</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>1700</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1795</v>
+        <v>109584</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1495</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>1895</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1395</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>3995</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B109" t="n">
-        <v>1795</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1475</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1630</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B112" t="n">
-        <v>1395</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B113" t="n">
-        <v>1695</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B114" t="n">
-        <v>1695</v>
+        <v>89985</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B115" t="n">
-        <v>1995</v>
+        <v>26985</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B116" t="n">
-        <v>1645</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="B117" t="n">
-        <v>1195</v>
+        <v>17595</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B118" t="n">
-        <v>2395</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B119" t="n">
-        <v>5195</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B120" t="n">
-        <v>1995</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B121" t="n">
-        <v>1295</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B122" t="n">
-        <v>1995</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B123" t="n">
-        <v>2105</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B124" t="n">
-        <v>7395</v>
+        <v>63975</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="B125" t="n">
-        <v>1995</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="B126" t="n">
-        <v>3595</v>
+        <v>89585</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B127" t="n">
-        <v>12994</v>
+        <v>24985</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B128" t="n">
-        <v>1520</v>
+        <v>35925</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B129" t="n">
-        <v>4395</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="B130" t="n">
-        <v>1695</v>
+        <v>8425</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B131" t="n">
-        <v>2695</v>
+        <v>21985</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="B132" t="n">
-        <v>2395</v>
+        <v>95585</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B133" t="n">
-        <v>2795</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B134" t="n">
-        <v>1995</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="B135" t="n">
-        <v>1495</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B136" t="n">
-        <v>1995</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="B137" t="n">
-        <v>1995</v>
+        <v>63975</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="B138" t="n">
-        <v>4795</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B139" t="n">
-        <v>5495</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="B140" t="n">
-        <v>4495</v>
+        <v>112984</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="B141" t="n">
-        <v>3795</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="B142" t="n">
-        <v>4895</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="B143" t="n">
-        <v>3995</v>
+        <v>65600</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B144" t="n">
-        <v>2195</v>
+        <v>83575</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="B145" t="n">
-        <v>8300</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="B146" t="n">
-        <v>6995</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="B147" t="n">
-        <v>24985</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="B148" t="n">
-        <v>2195</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B149" t="n">
-        <v>5600</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="B150" t="n">
-        <v>7700</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="B151" t="n">
-        <v>5195</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="B152" t="n">
-        <v>2295</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="B153" t="n">
-        <v>5495</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="B154" t="n">
-        <v>2485</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="B155" t="n">
-        <v>3795</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="B156" t="n">
-        <v>1595</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B157" t="n">
-        <v>3695</v>
+        <v>95585</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="B158" t="n">
-        <v>1995</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="B159" t="n">
-        <v>5400</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="B160" t="n">
-        <v>2395</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="B161" t="n">
-        <v>5595</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="B162" t="n">
-        <v>16000</v>
+        <v>13485</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B163" t="n">
-        <v>2395</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="B164" t="n">
-        <v>5800</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="B165" t="n">
-        <v>5395</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B166" t="n">
-        <v>3000</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="B167" t="n">
-        <v>25500</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B168" t="n">
-        <v>8700</v>
+        <v>21975</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="B169" t="n">
-        <v>1695</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="B170" t="n">
-        <v>2395</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="B171" t="n">
-        <v>4195</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="B172" t="n">
-        <v>4495</v>
+        <v>11595</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="B173" t="n">
-        <v>24195</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="B174" t="n">
-        <v>9995</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="B175" t="n">
-        <v>3485</v>
+        <v>7995</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="B176" t="n">
-        <v>5600</v>
+        <v>90225</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="B177" t="n">
-        <v>3995</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="B178" t="n">
-        <v>3485</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B179" t="n">
-        <v>1795</v>
+        <v>47985</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="B180" t="n">
-        <v>1695</v>
+        <v>223900</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="B181" t="n">
-        <v>13000</v>
+        <v>11885</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="B182" t="n">
-        <v>16985</v>
+        <v>17585</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="B183" t="n">
-        <v>5995</v>
+        <v>17485</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="B184" t="n">
-        <v>14985</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="B185" t="n">
-        <v>14300</v>
+        <v>141975</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B186" t="n">
-        <v>15985</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="B187" t="n">
-        <v>2295</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="B188" t="n">
-        <v>3995</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="B189" t="n">
-        <v>20000</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="B190" t="n">
-        <v>1685</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="B191" t="n">
-        <v>32500</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="B192" t="n">
-        <v>14985</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="B193" t="n">
-        <v>11985</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="B194" t="n">
-        <v>1495</v>
+        <v>10985</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="B195" t="n">
-        <v>12485</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B196" t="n">
-        <v>8795</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="B197" t="n">
-        <v>9485</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B198" t="n">
-        <v>1870</v>
+        <v>71625</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="B199" t="n">
-        <v>47500</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="B200" t="n">
-        <v>1575</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="B201" t="n">
-        <v>1695</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="B202" t="n">
-        <v>1700</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="B203" t="n">
-        <v>1795</v>
+        <v>53975</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="B204" t="n">
-        <v>1495</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="B205" t="n">
-        <v>1895</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="B206" t="n">
-        <v>1395</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="B207" t="n">
-        <v>3995</v>
+        <v>104300</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="B208" t="n">
-        <v>1795</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="B209" t="n">
-        <v>1475</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="B210" t="n">
-        <v>1630</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="B211" t="n">
-        <v>1395</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="B212" t="n">
-        <v>1695</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="B213" t="n">
-        <v>1695</v>
+        <v>34985</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="B214" t="n">
-        <v>1995</v>
+        <v>16985</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="B215" t="n">
-        <v>1645</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="B216" t="n">
-        <v>1195</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="B217" t="n">
-        <v>2395</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="B218" t="n">
-        <v>5195</v>
+        <v>23985</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B219" t="n">
-        <v>1995</v>
+        <v>89585</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="B220" t="n">
-        <v>1295</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="B221" t="n">
-        <v>1995</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="B222" t="n">
-        <v>2105</v>
+        <v>1899500</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="B223" t="n">
-        <v>7395</v>
+        <v>18375</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="B224" t="n">
-        <v>1995</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="B225" t="n">
-        <v>3595</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="B226" t="n">
-        <v>12994</v>
+        <v>29975</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B227" t="n">
-        <v>1520</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="B228" t="n">
-        <v>4395</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="B229" t="n">
-        <v>1695</v>
+        <v>37575</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="B230" t="n">
-        <v>2695</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B231" t="n">
-        <v>2395</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="B232" t="n">
-        <v>2795</v>
+        <v>17575</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="B233" t="n">
-        <v>1995</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="B234" t="n">
-        <v>1495</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="B235" t="n">
-        <v>1995</v>
+        <v>24585</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B236" t="n">
-        <v>1995</v>
+        <v>95585</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="B237" t="n">
-        <v>4795</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B238" t="n">
-        <v>5495</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="B239" t="n">
-        <v>4495</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="B240" t="n">
-        <v>3795</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="B241" t="n">
-        <v>4895</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="B242" t="n">
-        <v>3995</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="B243" t="n">
-        <v>2195</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="B244" t="n">
-        <v>8300</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="B245" t="n">
-        <v>6995</v>
+        <v>117500</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="B246" t="n">
-        <v>24985</v>
+        <v>19585</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="B247" t="n">
-        <v>2195</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="B248" t="n">
-        <v>5600</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="B249" t="n">
-        <v>7700</v>
+        <v>9525</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="B250" t="n">
-        <v>5195</v>
+        <v>49975</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="B251" t="n">
-        <v>2295</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="B252" t="n">
-        <v>5495</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="B253" t="n">
-        <v>2485</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="B254" t="n">
-        <v>3795</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="B255" t="n">
-        <v>1595</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="B256" t="n">
-        <v>3695</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="B257" t="n">
         <v>1995</v>
@@ -2719,775 +3556,775 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="B258" t="n">
-        <v>5400</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="B259" t="n">
-        <v>2395</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="B260" t="n">
-        <v>5595</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>63</v>
+        <v>249</v>
       </c>
       <c r="B261" t="n">
-        <v>16000</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="B262" t="n">
-        <v>2395</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="B263" t="n">
-        <v>5800</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="B264" t="n">
-        <v>5395</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="B265" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="B266" t="n">
-        <v>25500</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="B267" t="n">
-        <v>8700</v>
+        <v>21985</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="B268" t="n">
-        <v>1695</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="B269" t="n">
-        <v>2395</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B270" t="n">
-        <v>4195</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="B271" t="n">
-        <v>4495</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="B272" t="n">
-        <v>24195</v>
+        <v>45025</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="B273" t="n">
-        <v>9995</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="B274" t="n">
-        <v>3485</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="B275" t="n">
-        <v>5600</v>
+        <v>22485</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="B276" t="n">
-        <v>3995</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="B277" t="n">
-        <v>3485</v>
+        <v>123000</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="B278" t="n">
-        <v>1795</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="B279" t="n">
-        <v>1695</v>
+        <v>199885</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="B280" t="n">
-        <v>13000</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="B281" t="n">
-        <v>16985</v>
+        <v>71975</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="B282" t="n">
-        <v>5995</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="B283" t="n">
-        <v>14985</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>86</v>
+        <v>270</v>
       </c>
       <c r="B284" t="n">
-        <v>14300</v>
+        <v>16995</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="B285" t="n">
-        <v>15985</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="B286" t="n">
-        <v>2295</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="B287" t="n">
-        <v>3995</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="B288" t="n">
-        <v>20000</v>
+        <v>109584</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="B289" t="n">
-        <v>1685</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>92</v>
+        <v>275</v>
       </c>
       <c r="B290" t="n">
-        <v>32500</v>
+        <v>154900</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="B291" t="n">
-        <v>14985</v>
+        <v>209975</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B292" t="n">
-        <v>11985</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="B293" t="n">
-        <v>1495</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="B294" t="n">
-        <v>12485</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="B295" t="n">
-        <v>8795</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="B296" t="n">
-        <v>9485</v>
+        <v>386500</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="B297" t="n">
-        <v>1870</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="B298" t="n">
-        <v>47500</v>
+        <v>76475</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="B299" t="n">
-        <v>1575</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>3</v>
+        <v>283</v>
       </c>
       <c r="B300" t="n">
-        <v>1695</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="B301" t="n">
-        <v>1700</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>5</v>
+        <v>285</v>
       </c>
       <c r="B302" t="n">
-        <v>1795</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="B303" t="n">
-        <v>1495</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="B304" t="n">
-        <v>1895</v>
+        <v>223900</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="B305" t="n">
-        <v>1395</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B306" t="n">
-        <v>3995</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B307" t="n">
-        <v>1795</v>
+        <v>199900</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="B308" t="n">
-        <v>1475</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="B309" t="n">
-        <v>1630</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="B310" t="n">
-        <v>1395</v>
+        <v>34900</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="B311" t="n">
-        <v>1695</v>
+        <v>89500</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="B312" t="n">
-        <v>1695</v>
+        <v>99985</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="B313" t="n">
-        <v>1995</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="B314" t="n">
-        <v>1645</v>
+        <v>47585</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="B315" t="n">
-        <v>1195</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>19</v>
+        <v>296</v>
       </c>
       <c r="B316" t="n">
-        <v>2395</v>
+        <v>57900</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="B317" t="n">
-        <v>5195</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="B318" t="n">
-        <v>1995</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="B319" t="n">
-        <v>1295</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="B320" t="n">
-        <v>1995</v>
+        <v>18275</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>24</v>
+        <v>301</v>
       </c>
       <c r="B321" t="n">
-        <v>2105</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="B322" t="n">
-        <v>7395</v>
+        <v>106775</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="B323" t="n">
-        <v>1995</v>
+        <v>627900</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="B324" t="n">
-        <v>3595</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B325" t="n">
-        <v>12994</v>
+        <v>19985</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="B326" t="n">
-        <v>1520</v>
+        <v>229900</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="B327" t="n">
-        <v>4395</v>
+        <v>44485</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="B328" t="n">
-        <v>1695</v>
+        <v>195575</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="B329" t="n">
-        <v>2695</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="B330" t="n">
-        <v>2395</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="B331" t="n">
-        <v>2795</v>
+        <v>154485</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="B332" t="n">
-        <v>1995</v>
+        <v>10985</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="B333" t="n">
-        <v>1495</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="B334" t="n">
-        <v>1995</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="B335" t="n">
-        <v>1995</v>
+        <v>14485</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="B336" t="n">
-        <v>4795</v>
+        <v>29985</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="B337" t="n">
-        <v>5495</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="B338" t="n">
-        <v>4495</v>
+        <v>20485</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="B339" t="n">
-        <v>3795</v>
+        <v>11485</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="B340" t="n">
-        <v>4895</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="B341" t="n">
-        <v>3995</v>
+        <v>244485</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="B342" t="n">
-        <v>2195</v>
+        <v>79900</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="B343" t="n">
-        <v>8300</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="B344" t="n">
-        <v>6995</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="B345" t="n">
-        <v>24985</v>
+        <v>54725</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="B346" t="n">
-        <v>2195</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="B347" t="n">
-        <v>5600</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>51</v>
+        <v>325</v>
       </c>
       <c r="B348" t="n">
-        <v>7700</v>
+        <v>23585</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>52</v>
+        <v>326</v>
       </c>
       <c r="B349" t="n">
-        <v>5195</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="B350" t="n">
-        <v>2295</v>
+        <v>154585</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="B351" t="n">
-        <v>5495</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B352" t="n">
-        <v>2485</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B353" t="n">
-        <v>3795</v>
+        <v>71625</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="B354" t="n">
         <v>1595</v>
@@ -3495,1138 +4332,442 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="B355" t="n">
-        <v>3695</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="B356" t="n">
-        <v>1995</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="B357" t="n">
-        <v>5400</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>61</v>
+        <v>333</v>
       </c>
       <c r="B358" t="n">
-        <v>2395</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="B359" t="n">
-        <v>5595</v>
+        <v>18985</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="B360" t="n">
-        <v>16000</v>
+        <v>114900</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="B361" t="n">
-        <v>2395</v>
+        <v>154485</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>65</v>
+        <v>336</v>
       </c>
       <c r="B362" t="n">
-        <v>5800</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>66</v>
+        <v>337</v>
       </c>
       <c r="B363" t="n">
-        <v>5395</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="B364" t="n">
-        <v>3000</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>68</v>
+        <v>339</v>
       </c>
       <c r="B365" t="n">
-        <v>25500</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>69</v>
+        <v>340</v>
       </c>
       <c r="B366" t="n">
-        <v>8700</v>
+        <v>32425</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>70</v>
+        <v>341</v>
       </c>
       <c r="B367" t="n">
-        <v>1695</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="B368" t="n">
-        <v>2395</v>
+        <v>11485</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="B369" t="n">
-        <v>4195</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="B370" t="n">
-        <v>4495</v>
+        <v>22485</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="B371" t="n">
-        <v>24195</v>
+        <v>13585</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c r="B372" t="n">
-        <v>9995</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="B373" t="n">
-        <v>3485</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="B374" t="n">
-        <v>5600</v>
+        <v>89500</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="B375" t="n">
-        <v>3995</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="B376" t="n">
-        <v>3485</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="B377" t="n">
-        <v>1795</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="B378" t="n">
-        <v>1695</v>
+        <v>13925</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="B379" t="n">
-        <v>13000</v>
+        <v>119975</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="B380" t="n">
-        <v>16985</v>
+        <v>142900</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="B381" t="n">
-        <v>5995</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="B382" t="n">
-        <v>14985</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>86</v>
+        <v>354</v>
       </c>
       <c r="B383" t="n">
-        <v>14300</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="B384" t="n">
-        <v>15985</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="B385" t="n">
-        <v>2295</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="B386" t="n">
-        <v>3995</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="B387" t="n">
-        <v>20000</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>91</v>
+        <v>359</v>
       </c>
       <c r="B388" t="n">
-        <v>1685</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>92</v>
+        <v>360</v>
       </c>
       <c r="B389" t="n">
-        <v>32500</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>93</v>
+        <v>361</v>
       </c>
       <c r="B390" t="n">
-        <v>14985</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>94</v>
+        <v>362</v>
       </c>
       <c r="B391" t="n">
-        <v>11985</v>
+        <v>985</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="B392" t="n">
-        <v>1495</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>96</v>
+        <v>364</v>
       </c>
       <c r="B393" t="n">
-        <v>12485</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>97</v>
+        <v>365</v>
       </c>
       <c r="B394" t="n">
-        <v>8795</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B395" t="n">
-        <v>9485</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>99</v>
+        <v>366</v>
       </c>
       <c r="B396" t="n">
-        <v>1870</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="B397" t="n">
-        <v>47500</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="B398" t="n">
-        <v>1575</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="B399" t="n">
-        <v>1695</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>4</v>
+        <v>370</v>
       </c>
       <c r="B400" t="n">
-        <v>1700</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>5</v>
+        <v>371</v>
       </c>
       <c r="B401" t="n">
-        <v>1795</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>6</v>
+        <v>372</v>
       </c>
       <c r="B402" t="n">
-        <v>1495</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>7</v>
+        <v>373</v>
       </c>
       <c r="B403" t="n">
-        <v>1895</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="B404" t="n">
-        <v>1395</v>
+        <v>985</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="B405" t="n">
-        <v>3995</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="B406" t="n">
-        <v>1795</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="B407" t="n">
-        <v>1475</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c r="B408" t="n">
-        <v>1630</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="B409" t="n">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" t="s">
-        <v>14</v>
-      </c>
-      <c r="B410" t="n">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" t="s">
-        <v>15</v>
-      </c>
-      <c r="B411" t="n">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" t="s">
-        <v>16</v>
-      </c>
-      <c r="B412" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" t="s">
-        <v>17</v>
-      </c>
-      <c r="B413" t="n">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" t="s">
-        <v>18</v>
-      </c>
-      <c r="B414" t="n">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" t="s">
-        <v>19</v>
-      </c>
-      <c r="B415" t="n">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" t="s">
-        <v>20</v>
-      </c>
-      <c r="B416" t="n">
-        <v>5195</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="s">
-        <v>21</v>
-      </c>
-      <c r="B417" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" t="s">
-        <v>22</v>
-      </c>
-      <c r="B418" t="n">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" t="s">
-        <v>23</v>
-      </c>
-      <c r="B419" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" t="s">
-        <v>24</v>
-      </c>
-      <c r="B420" t="n">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" t="s">
-        <v>25</v>
-      </c>
-      <c r="B421" t="n">
-        <v>7395</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="s">
-        <v>26</v>
-      </c>
-      <c r="B422" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" t="s">
-        <v>27</v>
-      </c>
-      <c r="B423" t="n">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="s">
-        <v>28</v>
-      </c>
-      <c r="B424" t="n">
-        <v>12994</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" t="s">
-        <v>29</v>
-      </c>
-      <c r="B425" t="n">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" t="s">
-        <v>30</v>
-      </c>
-      <c r="B426" t="n">
-        <v>4395</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" t="s">
-        <v>31</v>
-      </c>
-      <c r="B427" t="n">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" t="s">
-        <v>32</v>
-      </c>
-      <c r="B428" t="n">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" t="s">
-        <v>33</v>
-      </c>
-      <c r="B429" t="n">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" t="s">
-        <v>34</v>
-      </c>
-      <c r="B430" t="n">
-        <v>2795</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" t="s">
-        <v>35</v>
-      </c>
-      <c r="B431" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" t="s">
-        <v>36</v>
-      </c>
-      <c r="B432" t="n">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" t="s">
-        <v>37</v>
-      </c>
-      <c r="B433" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" t="s">
-        <v>38</v>
-      </c>
-      <c r="B434" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" t="s">
-        <v>39</v>
-      </c>
-      <c r="B435" t="n">
-        <v>4795</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" t="s">
-        <v>40</v>
-      </c>
-      <c r="B436" t="n">
-        <v>5495</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" t="s">
-        <v>41</v>
-      </c>
-      <c r="B437" t="n">
-        <v>4495</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" t="s">
-        <v>42</v>
-      </c>
-      <c r="B438" t="n">
-        <v>3795</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" t="s">
-        <v>43</v>
-      </c>
-      <c r="B439" t="n">
-        <v>4895</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" t="s">
-        <v>44</v>
-      </c>
-      <c r="B440" t="n">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" t="s">
-        <v>45</v>
-      </c>
-      <c r="B441" t="n">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" t="s">
-        <v>46</v>
-      </c>
-      <c r="B442" t="n">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" t="s">
-        <v>47</v>
-      </c>
-      <c r="B443" t="n">
-        <v>6995</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" t="s">
-        <v>48</v>
-      </c>
-      <c r="B444" t="n">
-        <v>24985</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" t="s">
-        <v>49</v>
-      </c>
-      <c r="B445" t="n">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" t="s">
-        <v>50</v>
-      </c>
-      <c r="B446" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" t="s">
-        <v>51</v>
-      </c>
-      <c r="B447" t="n">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>52</v>
-      </c>
-      <c r="B448" t="n">
-        <v>5195</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>53</v>
-      </c>
-      <c r="B449" t="n">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" t="s">
-        <v>54</v>
-      </c>
-      <c r="B450" t="n">
-        <v>5495</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" t="s">
-        <v>55</v>
-      </c>
-      <c r="B451" t="n">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" t="s">
-        <v>56</v>
-      </c>
-      <c r="B452" t="n">
-        <v>3795</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" t="s">
-        <v>57</v>
-      </c>
-      <c r="B453" t="n">
         <v>1595</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" t="s">
-        <v>58</v>
-      </c>
-      <c r="B454" t="n">
-        <v>3695</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" t="s">
-        <v>59</v>
-      </c>
-      <c r="B455" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" t="s">
-        <v>60</v>
-      </c>
-      <c r="B456" t="n">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" t="s">
-        <v>61</v>
-      </c>
-      <c r="B457" t="n">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" t="s">
-        <v>62</v>
-      </c>
-      <c r="B458" t="n">
-        <v>5595</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" t="s">
-        <v>63</v>
-      </c>
-      <c r="B459" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" t="s">
-        <v>64</v>
-      </c>
-      <c r="B460" t="n">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" t="s">
-        <v>65</v>
-      </c>
-      <c r="B461" t="n">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" t="s">
-        <v>66</v>
-      </c>
-      <c r="B462" t="n">
-        <v>5395</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" t="s">
-        <v>67</v>
-      </c>
-      <c r="B463" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" t="s">
-        <v>68</v>
-      </c>
-      <c r="B464" t="n">
-        <v>25500</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
-      <c r="A465" t="s">
-        <v>69</v>
-      </c>
-      <c r="B465" t="n">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
-      <c r="A466" t="s">
-        <v>70</v>
-      </c>
-      <c r="B466" t="n">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
-      <c r="A467" t="s">
-        <v>71</v>
-      </c>
-      <c r="B467" t="n">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" t="s">
-        <v>72</v>
-      </c>
-      <c r="B468" t="n">
-        <v>4195</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" t="s">
-        <v>73</v>
-      </c>
-      <c r="B469" t="n">
-        <v>4495</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" t="s">
-        <v>74</v>
-      </c>
-      <c r="B470" t="n">
-        <v>24195</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" t="s">
-        <v>75</v>
-      </c>
-      <c r="B471" t="n">
-        <v>9995</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" t="s">
-        <v>76</v>
-      </c>
-      <c r="B472" t="n">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" t="s">
-        <v>77</v>
-      </c>
-      <c r="B473" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" t="s">
-        <v>78</v>
-      </c>
-      <c r="B474" t="n">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" t="s">
-        <v>79</v>
-      </c>
-      <c r="B475" t="n">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" t="s">
-        <v>80</v>
-      </c>
-      <c r="B476" t="n">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" t="s">
-        <v>81</v>
-      </c>
-      <c r="B477" t="n">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" t="s">
-        <v>82</v>
-      </c>
-      <c r="B478" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" t="s">
-        <v>83</v>
-      </c>
-      <c r="B479" t="n">
-        <v>16985</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" t="s">
-        <v>84</v>
-      </c>
-      <c r="B480" t="n">
-        <v>5995</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" t="s">
-        <v>85</v>
-      </c>
-      <c r="B481" t="n">
-        <v>14985</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" t="s">
-        <v>86</v>
-      </c>
-      <c r="B482" t="n">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" t="s">
-        <v>87</v>
-      </c>
-      <c r="B483" t="n">
-        <v>15985</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" t="s">
-        <v>88</v>
-      </c>
-      <c r="B484" t="n">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" t="s">
-        <v>89</v>
-      </c>
-      <c r="B485" t="n">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" t="s">
-        <v>90</v>
-      </c>
-      <c r="B486" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" t="s">
-        <v>91</v>
-      </c>
-      <c r="B487" t="n">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" t="s">
-        <v>92</v>
-      </c>
-      <c r="B488" t="n">
-        <v>32500</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
-      <c r="A489" t="s">
-        <v>93</v>
-      </c>
-      <c r="B489" t="n">
-        <v>14985</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" t="s">
-        <v>94</v>
-      </c>
-      <c r="B490" t="n">
-        <v>11985</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" t="s">
-        <v>95</v>
-      </c>
-      <c r="B491" t="n">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
-      <c r="A492" t="s">
-        <v>96</v>
-      </c>
-      <c r="B492" t="n">
-        <v>12485</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
-      <c r="A493" t="s">
-        <v>97</v>
-      </c>
-      <c r="B493" t="n">
-        <v>8795</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2">
-      <c r="A494" t="s">
-        <v>98</v>
-      </c>
-      <c r="B494" t="n">
-        <v>9485</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
-      <c r="A495" t="s">
-        <v>99</v>
-      </c>
-      <c r="B495" t="n">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2">
-      <c r="A496" t="s">
-        <v>100</v>
-      </c>
-      <c r="B496" t="n">
-        <v>47500</v>
       </c>
     </row>
   </sheetData>

--- a/wineData.xlsx
+++ b/wineData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t>name</t>
   </si>
@@ -95,15 +95,15 @@
     <t>Chateau Graves de Rabion Saint Emilion, Aoc Red</t>
   </si>
   <si>
+    <t>Ginestet Grand Vin de Pauillac 2015</t>
+  </si>
+  <si>
+    <t>Yvon Mau Bordeaux Discovery Chest</t>
+  </si>
+  <si>
     <t>Château Guillou 2015</t>
   </si>
   <si>
-    <t>Ginestet Grand Vin de Pauillac 2015</t>
-  </si>
-  <si>
-    <t>Yvon Mau Bordeaux Discovery Chest</t>
-  </si>
-  <si>
     <t>Chateau Tour Carmail, Haut-Medoc Aoc</t>
   </si>
   <si>
@@ -119,24 +119,24 @@
     <t>Château Ampélia 2015</t>
   </si>
   <si>
+    <t>Premius Crémant de Bordeaux</t>
+  </si>
+  <si>
+    <t>Plais de L'Obriere Bordeaux Superieur Kpm 2015</t>
+  </si>
+  <si>
     <t>Château Tauzinat L'Hermitage Red 2015</t>
   </si>
   <si>
-    <t>Premius Crémant de Bordeaux</t>
-  </si>
-  <si>
-    <t>Plais de L'Obriere Bordeaux Superieur Kpm 2015</t>
-  </si>
-  <si>
     <t>Les Charmes de Magnol 2014</t>
   </si>
   <si>
+    <t>Château Gazin-Rocquencourt 2012</t>
+  </si>
+  <si>
     <t>Château Joinin 2015</t>
   </si>
   <si>
-    <t>Château Gazin-Rocquencourt 2012</t>
-  </si>
-  <si>
     <t>Château Mongravey 2014</t>
   </si>
   <si>
@@ -158,246 +158,249 @@
     <t>Ségla 2010</t>
   </si>
   <si>
+    <t>Château Cos D'Estournel 2011</t>
+  </si>
+  <si>
     <t>Château La Croix Du Casse 2009</t>
   </si>
   <si>
-    <t>Château Cos D'Estournel 2011</t>
-  </si>
-  <si>
     <t>Château Roc Des Moulins Kpm</t>
   </si>
   <si>
     <t>Domaine Des Sabines 2014</t>
   </si>
   <si>
+    <t>Château La Garde 2010</t>
+  </si>
+  <si>
+    <t>Château Montlandrie 2009</t>
+  </si>
+  <si>
     <t>Château La Tour Du Pin Figeac 2000</t>
   </si>
   <si>
-    <t>Château La Garde 2010</t>
+    <t>Château Sénéjac</t>
   </si>
   <si>
     <t>Château de Landiras 2014</t>
   </si>
   <si>
-    <t>Château Montlandrie 2009</t>
-  </si>
-  <si>
-    <t>Château Sénéjac</t>
-  </si>
-  <si>
     <t>Château Francs Magnus 2015</t>
   </si>
   <si>
+    <t>Château Clos de Sarpe 1996</t>
+  </si>
+  <si>
+    <t>Château Gaby 2011</t>
+  </si>
+  <si>
     <t>Château Marquis de Mons 2010</t>
   </si>
   <si>
-    <t>Château Gaby 2011</t>
-  </si>
-  <si>
     <t>Clos Des Moiselles 2014</t>
   </si>
   <si>
+    <t>Clos Du Marquis 2003</t>
+  </si>
+  <si>
+    <t>Château Barde-Haut 2012</t>
+  </si>
+  <si>
+    <t>Château Pierre de Montignac 2009</t>
+  </si>
+  <si>
+    <t>Château Du Carillon 2010</t>
+  </si>
+  <si>
+    <t>Château Les Justices 2014</t>
+  </si>
+  <si>
     <t>Domaine de Chevalier Clos Des Lunes Lune D'Argent Blanc 2014</t>
   </si>
   <si>
-    <t>Château Barde-Haut 2012</t>
-  </si>
-  <si>
-    <t>Château Pierre de Montignac 2009</t>
-  </si>
-  <si>
-    <t>Clos Du Marquis 2003</t>
-  </si>
-  <si>
-    <t>Château Clos de Sarpe 1996</t>
-  </si>
-  <si>
-    <t>Château Du Carillon 2010</t>
-  </si>
-  <si>
-    <t>Château Les Justices 2014</t>
-  </si>
-  <si>
     <t>Château Tertre Daugay 2008</t>
   </si>
   <si>
+    <t>Château Pichon-Longueville Baron 2012</t>
+  </si>
+  <si>
     <t>Château La Tour Carnet 2010</t>
   </si>
   <si>
-    <t>Château Pichon-Longueville Baron 2012</t>
+    <t>Château Verdignan 2005</t>
+  </si>
+  <si>
+    <t>La Chapelle de La Mission Haut-Brion 2009</t>
+  </si>
+  <si>
+    <t>Château Potensac 2005</t>
+  </si>
+  <si>
+    <t>Château Armens 2010</t>
+  </si>
+  <si>
+    <t>Château Barde-Haut 2004</t>
+  </si>
+  <si>
+    <t>Château Teyssier 2012</t>
   </si>
   <si>
     <t>Charme D'Alienor Crémant de Bordeaux</t>
   </si>
   <si>
-    <t>Château Barde-Haut 2004</t>
-  </si>
-  <si>
-    <t>Château Verdignan 2005</t>
-  </si>
-  <si>
-    <t>Château Armens 2010</t>
-  </si>
-  <si>
-    <t>La Chapelle de La Mission Haut-Brion 2009</t>
-  </si>
-  <si>
-    <t>Château Potensac 2005</t>
-  </si>
-  <si>
-    <t>Château Teyssier 2012</t>
+    <t>Château Citran 2014</t>
+  </si>
+  <si>
+    <t>Château Coufran 2005</t>
+  </si>
+  <si>
+    <t>Château Montrose 2011</t>
+  </si>
+  <si>
+    <t>Les Pagodes de Cos 2010</t>
+  </si>
+  <si>
+    <t>Château Le Grand Verdus Merlot / Cabernet Sauvignon 2014</t>
+  </si>
+  <si>
+    <t>Château La Fleur Pourret 2010</t>
+  </si>
+  <si>
+    <t>Château Pontet-Canet 2013</t>
+  </si>
+  <si>
+    <t>Château de Lamarque 2010</t>
+  </si>
+  <si>
+    <t>Château de Marsan 2014</t>
+  </si>
+  <si>
+    <t>Château Marsac-Seguineau 2010</t>
+  </si>
+  <si>
+    <t>La Clarté de Haut Brion Blanc 2013</t>
+  </si>
+  <si>
+    <t>Domaine de Chevalier 2008</t>
+  </si>
+  <si>
+    <t>Château Ferrière 2000</t>
   </si>
   <si>
     <t>Château Coufran 2014</t>
   </si>
   <si>
-    <t>Château Coufran 2005</t>
-  </si>
-  <si>
-    <t>Château La Fleur Pourret 2010</t>
-  </si>
-  <si>
-    <t>Château Citran 2014</t>
-  </si>
-  <si>
-    <t>Château Le Grand Verdus Merlot / Cabernet Sauvignon 2014</t>
-  </si>
-  <si>
-    <t>Château de Marsan 2014</t>
-  </si>
-  <si>
-    <t>Les Pagodes de Cos 2010</t>
-  </si>
-  <si>
-    <t>Château Montrose 2011</t>
-  </si>
-  <si>
-    <t>Château Marsac-Seguineau 2010</t>
-  </si>
-  <si>
-    <t>Château Pontet-Canet 2013</t>
-  </si>
-  <si>
-    <t>Château de Lamarque 2010</t>
-  </si>
-  <si>
-    <t>La Clarté de Haut Brion Blanc 2013</t>
-  </si>
-  <si>
-    <t>Domaine de Chevalier 2008</t>
-  </si>
-  <si>
-    <t>Château Ferrière 2000</t>
-  </si>
-  <si>
     <t>Chateau Michel de Vert Lussac Saint-Emilion 2014</t>
   </si>
   <si>
+    <t>Château Smith Haut Lafitte 2014</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville Baron 2002</t>
+  </si>
+  <si>
+    <t>Château Rieussec 2010</t>
+  </si>
+  <si>
     <t>Chateau Camille Gaucheraud Sauvignon Blanc 2015</t>
   </si>
   <si>
-    <t>Château Pichon-Longueville Baron 2002</t>
-  </si>
-  <si>
-    <t>Château Smith Haut Lafitte 2014</t>
-  </si>
-  <si>
     <t>Château Gazin 2014</t>
   </si>
   <si>
-    <t>Château Rieussec 2010</t>
+    <t>Lillet Rouge</t>
   </si>
   <si>
     <t>Château Sainte-Marie Vieilles Vignes Entre-Deux-Mers 2015</t>
   </si>
   <si>
-    <t>Lillet Rouge</t>
-  </si>
-  <si>
     <t>Château Talbot 2014</t>
   </si>
   <si>
     <t>Château Pichon-Longueville Baron 2010</t>
   </si>
   <si>
+    <t>Château Figeac 2000</t>
+  </si>
+  <si>
     <t>Château Gruaud Larose 2014</t>
   </si>
   <si>
-    <t>Château Figeac 2000</t>
-  </si>
-  <si>
     <t>Château Cheval Blanc 2011</t>
   </si>
   <si>
+    <t>Château Les Remparts de Bel-Air Kpm</t>
+  </si>
+  <si>
+    <t>Château La Lagune 2010</t>
+  </si>
+  <si>
+    <t>Château Rol Valentin 2004</t>
+  </si>
+  <si>
     <t>Château La Confession 2012</t>
   </si>
   <si>
-    <t>Château Les Remparts de Bel-Air Kpm</t>
+    <t>Château Cantemerle 2010</t>
   </si>
   <si>
     <t>Château Roquefort Blanc 2016</t>
   </si>
   <si>
-    <t>Château La Lagune 2010</t>
-  </si>
-  <si>
-    <t>Château Rol Valentin 2004</t>
-  </si>
-  <si>
     <t>Château de France 2014</t>
   </si>
   <si>
     <t>Château Malartic-Lagravière 2010</t>
   </si>
   <si>
+    <t>Château La Mondotte 2013</t>
+  </si>
+  <si>
     <t>Château Ausone 2013</t>
   </si>
   <si>
-    <t>Château La Mondotte 2013</t>
+    <t>Château D'Armailhac 2005</t>
   </si>
   <si>
     <t>Château Haut-Bailly 2011</t>
   </si>
   <si>
-    <t>Château D'Armailhac 2005</t>
+    <t>Château Grand Mouëys 2015</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion 2005</t>
+  </si>
+  <si>
+    <t>Château Branaire-Ducru 2009</t>
+  </si>
+  <si>
+    <t>Château Haut-Bailly 2014</t>
+  </si>
+  <si>
+    <t>Château Lafleur 2007</t>
+  </si>
+  <si>
+    <t>Château Phélan-Ségur 2014</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion 2011</t>
+  </si>
+  <si>
+    <t>Château Brane-Cantenac 2009</t>
+  </si>
+  <si>
+    <t>Vieux Château Certan 2013</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2007</t>
+  </si>
+  <si>
+    <t>Château Le Conseiller 2015</t>
   </si>
   <si>
     <t>Châteaux Vieux Chevrol 2010</t>
   </si>
   <si>
-    <t>Château Grand Mouëys 2015</t>
-  </si>
-  <si>
-    <t>Château Branaire-Ducru 2009</t>
-  </si>
-  <si>
-    <t>Château Haut-Brion 2005</t>
-  </si>
-  <si>
-    <t>Château Haut-Bailly 2014</t>
-  </si>
-  <si>
-    <t>Château Brane-Cantenac 2009</t>
-  </si>
-  <si>
-    <t>Château Lafleur 2007</t>
-  </si>
-  <si>
-    <t>Château Phélan-Ségur 2014</t>
-  </si>
-  <si>
-    <t>Château Haut-Brion 2011</t>
-  </si>
-  <si>
-    <t>Vieux Château Certan 2013</t>
-  </si>
-  <si>
-    <t>Château D'Yquem 2007</t>
-  </si>
-  <si>
-    <t>Château Le Conseiller 2015</t>
-  </si>
-  <si>
     <t>Le Merle de Peby Faugeres Saint Emilion Grand Cru 2011</t>
   </si>
   <si>
@@ -407,118 +410,124 @@
     <t>Château Mouton Rothschild 2011</t>
   </si>
   <si>
-    <t>Haut Faugeres Saint Emilion Grand Cru 2011</t>
-  </si>
-  <si>
     <t>Château Grand-Puy Ducasse 2014</t>
   </si>
   <si>
+    <t>Château Laville Haut-Brion Blanc 2007</t>
+  </si>
+  <si>
+    <t>Château Larcis Ducasse 2009</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2005</t>
+  </si>
+  <si>
+    <t>Clos Du Marquis 2009</t>
+  </si>
+  <si>
     <t>Château de Lamarque 2014</t>
   </si>
   <si>
-    <t>Château Larcis Ducasse 2009</t>
-  </si>
-  <si>
-    <t>Château Laville Haut-Brion Blanc 2007</t>
-  </si>
-  <si>
-    <t>Clos Du Marquis 2009</t>
-  </si>
-  <si>
-    <t>Château de Fargues 2005</t>
-  </si>
-  <si>
-    <t>Château La Mission Haut-Brion Blanc 2013</t>
+    <t>Château D'Yquem 2010</t>
+  </si>
+  <si>
+    <t>Château Croix de Labrie 2003</t>
+  </si>
+  <si>
+    <t>Chateau La Mission Haut Brion 1995</t>
+  </si>
+  <si>
+    <t>Château Latour 2001</t>
+  </si>
+  <si>
+    <t>Château Haut-Bergey 2004</t>
+  </si>
+  <si>
+    <t>Espérance de Trotanoy 2014</t>
+  </si>
+  <si>
+    <t>Annonce de Belair Monange 2014</t>
+  </si>
+  <si>
+    <t>Château Pey La Tour Réserve Du Château 2012</t>
+  </si>
+  <si>
+    <t>Château Pontet-Canet 2011</t>
+  </si>
+  <si>
+    <t>Les Vacances de Monsieur Merlot 2015</t>
+  </si>
+  <si>
+    <t>Chateau Brown Blanc 2012</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut Brion 2008</t>
+  </si>
+  <si>
+    <t>Château L'Hermitage 2005</t>
+  </si>
+  <si>
+    <t>Chateau Pey-Bonhomme Les Tours 2015</t>
   </si>
   <si>
     <t>Château Clarke 2010</t>
   </si>
   <si>
+    <t>Château D'Issan 2012</t>
+  </si>
+  <si>
+    <t>Chateau de Chambrun Lalande de Pomerol 2010</t>
+  </si>
+  <si>
     <t>Château Kirwan 2014</t>
   </si>
   <si>
-    <t>Chateau La Mission Haut Brion 1995</t>
-  </si>
-  <si>
-    <t>Château D'Yquem 2010</t>
-  </si>
-  <si>
-    <t>Château Croix de Labrie 2003</t>
-  </si>
-  <si>
-    <t>Château Latour 2001</t>
-  </si>
-  <si>
-    <t>Château Haut-Bergey 2004</t>
-  </si>
-  <si>
-    <t>Espérance de Trotanoy 2014</t>
-  </si>
-  <si>
-    <t>Château Pey La Tour Réserve Du Château 2012</t>
-  </si>
-  <si>
-    <t>Annonce de Belair Monange 2014</t>
-  </si>
-  <si>
-    <t>Château Pontet-Canet 2011</t>
-  </si>
-  <si>
-    <t>Chateau Brown Blanc 2012</t>
-  </si>
-  <si>
-    <t>Château D'Issan 2012</t>
-  </si>
-  <si>
-    <t>Château La Mission Haut Brion 2008</t>
-  </si>
-  <si>
-    <t>Les Vacances de Monsieur Merlot 2015</t>
-  </si>
-  <si>
-    <t>Château L'Hermitage 2005</t>
+    <t>Château Malartic-Lagravière 2012</t>
+  </si>
+  <si>
+    <t>Château Bouscaut Blanc 2014</t>
   </si>
   <si>
     <t>Chateau Busquet Lussac-Saint-Emilion 2014</t>
   </si>
   <si>
-    <t>Chateau Pey-Bonhomme Les Tours 2015</t>
-  </si>
-  <si>
-    <t>Chateau de Chambrun Lalande de Pomerol 2010</t>
+    <t>Château Laforge 2010</t>
+  </si>
+  <si>
+    <t>Château Latour 2005</t>
+  </si>
+  <si>
+    <t>Chateau Des Moines Prestige 2014</t>
+  </si>
+  <si>
+    <t>Château Bellevue Mondotte 2011</t>
+  </si>
+  <si>
+    <t>Château Ormes de Pez 2014</t>
   </si>
   <si>
     <t>Château Quinault L'Enclos 2001</t>
   </si>
   <si>
+    <t>Château Brown 2010</t>
+  </si>
+  <si>
+    <t>Légende Bordeaux Rouge 2015</t>
+  </si>
+  <si>
     <t>Château Léoville Poyferré 2014</t>
   </si>
   <si>
-    <t>Château Malartic-Lagravière 2012</t>
-  </si>
-  <si>
-    <t>Légende Bordeaux Rouge 2015</t>
-  </si>
-  <si>
-    <t>Château Laforge 2010</t>
-  </si>
-  <si>
-    <t>Château Latour 2005</t>
-  </si>
-  <si>
-    <t>Château Bouscaut Blanc 2014</t>
-  </si>
-  <si>
-    <t>Château Bellevue Mondotte 2011</t>
-  </si>
-  <si>
-    <t>Château Ormes de Pez 2014</t>
-  </si>
-  <si>
-    <t>Chateau Des Moines Prestige 2014</t>
-  </si>
-  <si>
-    <t>Château Brown 2010</t>
+    <t>Château Haut-Brion 2006</t>
+  </si>
+  <si>
+    <t>Château Tronquoy-Lalande 2009</t>
+  </si>
+  <si>
+    <t>Château Branaire-Ducru 2014</t>
   </si>
   <si>
     <t>Château Clos de Sarpe 1998</t>
@@ -527,66 +536,63 @@
     <t>Quintessence de Peybonhomme 2014</t>
   </si>
   <si>
-    <t>Château Branaire-Ducru 2014</t>
-  </si>
-  <si>
-    <t>Château Tronquoy-Lalande 2009</t>
+    <t>Château Lascombes 2014</t>
+  </si>
+  <si>
+    <t>Château Cos D'Estournel 2010</t>
+  </si>
+  <si>
+    <t>Chateau Moulin de Grenet 2015</t>
   </si>
   <si>
     <t>Château D'Yquem 2005</t>
   </si>
   <si>
-    <t>Château Lascombes 2014</t>
-  </si>
-  <si>
-    <t>Chateau Moulin de Grenet 2015</t>
-  </si>
-  <si>
-    <t>Château Cos D'Estournel 2010</t>
+    <t>Château Malartic-Lagraviere Blanc 2009</t>
+  </si>
+  <si>
+    <t>Château Ducru-Beaucaillou 2013</t>
+  </si>
+  <si>
+    <t>Château Larmande 2010</t>
+  </si>
+  <si>
+    <t>Domaine de Chevalier Blanc 2014</t>
+  </si>
+  <si>
+    <t>Château Des Demoiselles 2014</t>
+  </si>
+  <si>
+    <t>Château Suduiraut 2001</t>
+  </si>
+  <si>
+    <t>Château La Mondotte 2011</t>
+  </si>
+  <si>
+    <t>Château Lafleur 2009</t>
+  </si>
+  <si>
+    <t>Château Du Tertre 2014</t>
+  </si>
+  <si>
+    <t>Château Pape Clément 2013</t>
   </si>
   <si>
     <t>Château Latour 2000</t>
   </si>
   <si>
-    <t>Château Malartic-Lagraviere Blanc 2009</t>
-  </si>
-  <si>
-    <t>Château Ducru-Beaucaillou 2013</t>
-  </si>
-  <si>
-    <t>Domaine de Chevalier Blanc 2014</t>
-  </si>
-  <si>
-    <t>Château Du Tertre 2014</t>
-  </si>
-  <si>
-    <t>Château Lafleur 2009</t>
-  </si>
-  <si>
-    <t>Château Des Demoiselles 2014</t>
-  </si>
-  <si>
-    <t>Château La Mondotte 2011</t>
-  </si>
-  <si>
-    <t>Château Suduiraut 2001</t>
-  </si>
-  <si>
-    <t>Château Pape Clément 2013</t>
+    <t>Château La Conseillante 2013</t>
+  </si>
+  <si>
+    <t>Château La Lagune 2014</t>
+  </si>
+  <si>
+    <t>Chateau Arnauld 2012</t>
   </si>
   <si>
     <t>Château Le Bon Pasteur 2014</t>
   </si>
   <si>
-    <t>Château La Conseillante 2013</t>
-  </si>
-  <si>
-    <t>Château La Lagune 2014</t>
-  </si>
-  <si>
-    <t>Chateau Arnauld 2012</t>
-  </si>
-  <si>
     <t>Clos L'Église 2013</t>
   </si>
   <si>
@@ -596,565 +602,550 @@
     <t>Château Coutet 2009</t>
   </si>
   <si>
+    <t>Chateau Larose Perganson 2Cru Bourgeois 2008</t>
+  </si>
+  <si>
+    <t>Chateau Gloria 2012</t>
+  </si>
+  <si>
+    <t>Château Beau-Séjour Bécot 2014</t>
+  </si>
+  <si>
+    <t>Château La Cabanne 2009</t>
+  </si>
+  <si>
+    <t>Château de Lionne 2015</t>
+  </si>
+  <si>
+    <t>Le Petit Mouton de Mouton Rothschild 2004</t>
+  </si>
+  <si>
+    <t>Château Clos Haut-Peyraguey 2014</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2007</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2009</t>
+  </si>
+  <si>
+    <t>Château Beychevelle 2014</t>
+  </si>
+  <si>
+    <t>Château Olivier 2014</t>
+  </si>
+  <si>
+    <t>Château D'Armailhac 2014</t>
+  </si>
+  <si>
+    <t>Château Malescot Saint-Exupery 2012</t>
+  </si>
+  <si>
     <t>Clos Fourtet 2014</t>
   </si>
   <si>
-    <t>Chateau La Grolet Tete de Cuvee 2015</t>
-  </si>
-  <si>
-    <t>Château de Lionne 2015</t>
-  </si>
-  <si>
-    <t>Chateau Larose Perganson 2Cru Bourgeois 2008</t>
-  </si>
-  <si>
-    <t>Château de Fargues 2007</t>
-  </si>
-  <si>
-    <t>Château D'Yquem 2009</t>
-  </si>
-  <si>
-    <t>Chateau Gloria 2012</t>
-  </si>
-  <si>
-    <t>Le Petit Mouton de Mouton Rothschild 2004</t>
-  </si>
-  <si>
-    <t>Château Beau-Séjour Bécot 2014</t>
-  </si>
-  <si>
-    <t>Château Haut-Brion 2006</t>
-  </si>
-  <si>
-    <t>Château La Cabanne 2009</t>
-  </si>
-  <si>
-    <t>Château D'Armailhac 2014</t>
-  </si>
-  <si>
-    <t>Château Olivier 2014</t>
-  </si>
-  <si>
-    <t>Château Larmande 2010</t>
-  </si>
-  <si>
     <t>Château La Mission Haut-Brion 2012</t>
   </si>
   <si>
-    <t>Château Beychevelle 2014</t>
+    <t>Pavillon Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château Malescot St. Exupéry 2011</t>
+  </si>
+  <si>
+    <t>Château Pontet-Canet 2008</t>
+  </si>
+  <si>
+    <t>Vieux Château Certan 2012</t>
+  </si>
+  <si>
+    <t>La Chapelle de Lafaurie-Peyraguey 2009</t>
+  </si>
+  <si>
+    <t>Château Ducru-Beaucaillou 1986</t>
+  </si>
+  <si>
+    <t>Château Malartic-Lagravière 2014</t>
+  </si>
+  <si>
+    <t>Bordeaux Collection 2010</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2006</t>
+  </si>
+  <si>
+    <t>Château Trotanoy</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2013</t>
   </si>
   <si>
     <t>Château Gloria 2014</t>
   </si>
   <si>
-    <t>Château Malescot Saint-Exupery 2012</t>
-  </si>
-  <si>
-    <t>Pavillon Blanc 2013</t>
-  </si>
-  <si>
-    <t>Château Malescot St. Exupéry 2011</t>
-  </si>
-  <si>
-    <t>Château Pontet-Canet 2008</t>
-  </si>
-  <si>
-    <t>Bordeaux Collection 2010</t>
-  </si>
-  <si>
-    <t>Vieux Château Certan 2012</t>
-  </si>
-  <si>
-    <t>Château Malartic-Lagravière 2014</t>
-  </si>
-  <si>
-    <t>Château Ducru-Beaucaillou 1986</t>
-  </si>
-  <si>
-    <t>Château D'Yquem 2006</t>
-  </si>
-  <si>
     <t>Domaine de Chevalier Blanc 2013</t>
   </si>
   <si>
-    <t>Château de Fargues 2013</t>
-  </si>
-  <si>
-    <t>La Chapelle de Lafaurie-Peyraguey 2009</t>
-  </si>
-  <si>
-    <t>Château Trotanoy</t>
+    <t>Château Prieuré-Lichine 2009</t>
+  </si>
+  <si>
+    <t>Château L'Église-Clinet 2011</t>
   </si>
   <si>
     <t>Château Plaisance 2011</t>
   </si>
   <si>
-    <t>Château L'Église-Clinet 2011</t>
+    <t>Château La Mission Haut-Brion 2007</t>
+  </si>
+  <si>
+    <t>Lynsolence 2012</t>
   </si>
   <si>
     <t>Château Clos Du Loup Cuvée Prestige 2010</t>
   </si>
   <si>
-    <t>Château Prieuré-Lichine 2009</t>
-  </si>
-  <si>
-    <t>Château La Mission Haut-Brion 2007</t>
-  </si>
-  <si>
     <t>Jp Chenet Pink Ice Mousseux</t>
   </si>
   <si>
+    <t>Château Trotanoy 2013</t>
+  </si>
+  <si>
+    <t>Château La Couspaude 2014</t>
+  </si>
+  <si>
+    <t>09 Beausejour Duffau-Lagarosse St. Emilion</t>
+  </si>
+  <si>
+    <t>Domaine de Chevalier 2014</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2009</t>
+  </si>
+  <si>
+    <t>Le Petit Grand Semillon-Sauvignon Bordeaux</t>
+  </si>
+  <si>
+    <t>Château Franc Mayne 2009</t>
+  </si>
+  <si>
+    <t>Château Tour de Sarrail 2010</t>
+  </si>
+  <si>
     <t>Château Latour-Martillac 2014</t>
   </si>
   <si>
-    <t>Lynsolence 2012</t>
+    <t>Domaine de Chevalier Blanc 2011</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2006</t>
+  </si>
+  <si>
+    <t>Château Lagrange 2014</t>
+  </si>
+  <si>
+    <t>Château Léoville Barton 2014</t>
+  </si>
+  <si>
+    <t>Château Gaudin 2010</t>
   </si>
   <si>
     <t>Château Haut Peyraud 2012</t>
   </si>
   <si>
-    <t>Domaine de Chevalier 2014</t>
-  </si>
-  <si>
-    <t>09 Beausejour Duffau-Lagarosse St. Emilion</t>
-  </si>
-  <si>
-    <t>Château Trotanoy 2013</t>
+    <t>Château Grand-Puy-Lacoste 2012</t>
+  </si>
+  <si>
+    <t>Château La Gravette Lacombe 2012</t>
   </si>
   <si>
     <t>Château Rahoul 2012</t>
   </si>
   <si>
-    <t>Château La Couspaude 2014</t>
-  </si>
-  <si>
-    <t>Château de Fargues 2009</t>
-  </si>
-  <si>
-    <t>Château La Mission Haut-Brion 2006</t>
-  </si>
-  <si>
-    <t>Château Lagrange 2014</t>
-  </si>
-  <si>
-    <t>Château Franc Mayne 2009</t>
+    <t>Château Beau-Site 2011</t>
   </si>
   <si>
     <t>Château Maucaillou 2014</t>
   </si>
   <si>
-    <t>Château Grand-Puy-Lacoste 2012</t>
-  </si>
-  <si>
-    <t>Château La Gravette Lacombe 2012</t>
-  </si>
-  <si>
-    <t>Le Petit Grand Semillon-Sauvignon Bordeaux</t>
-  </si>
-  <si>
-    <t>Château Tour de Sarrail 2010</t>
-  </si>
-  <si>
-    <t>Château Beau-Site 2011</t>
+    <t>Château Pichon-Longueville-Baron 2014</t>
   </si>
   <si>
     <t>Château Magnol 2012</t>
   </si>
   <si>
-    <t>Château Léoville Barton 2014</t>
-  </si>
-  <si>
-    <t>Château Gaudin 2010</t>
-  </si>
-  <si>
-    <t>Domaine de Chevalier Blanc 2011</t>
+    <t>Y D'Yquem 2013</t>
+  </si>
+  <si>
+    <t>Château La Providence 2011</t>
+  </si>
+  <si>
+    <t>Y D'Yquem 2011</t>
+  </si>
+  <si>
+    <t>Château Larrivet Haut-Brion 2014</t>
+  </si>
+  <si>
+    <t>Château de Panigon 2013</t>
+  </si>
+  <si>
+    <t>Château Gilette Crème de Tête 1982</t>
+  </si>
+  <si>
+    <t>Château Valandraud 2005</t>
   </si>
   <si>
     <t>Château Langoa Barton 2014</t>
   </si>
   <si>
+    <t>Château Giscours 2000</t>
+  </si>
+  <si>
+    <t>Château Pipeau 2006</t>
+  </si>
+  <si>
     <t>Duluc de Branaire-Ducru 2010</t>
   </si>
   <si>
-    <t>Château Pipeau 2006</t>
-  </si>
-  <si>
-    <t>Château Pichon-Longueville-Baron 2014</t>
-  </si>
-  <si>
-    <t>Y D'Yquem 2013</t>
-  </si>
-  <si>
-    <t>Château La Providence 2011</t>
-  </si>
-  <si>
-    <t>Château Giscours 2000</t>
-  </si>
-  <si>
-    <t>Château Valandraud 2005</t>
+    <t>Château La Rose Perrière 2008</t>
+  </si>
+  <si>
+    <t>Château Climens 2010</t>
+  </si>
+  <si>
+    <t>Château Faugères Cuvée Péby 2011</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion 1998</t>
   </si>
   <si>
     <t>Château Léoville Poyferre 2010</t>
   </si>
   <si>
-    <t>Château Larrivet Haut-Brion 2014</t>
-  </si>
-  <si>
-    <t>Y D'Yquem 2011</t>
-  </si>
-  <si>
-    <t>Château Gilette Crème de Tête 1982</t>
+    <t>Château Bélair-Monange 2013</t>
+  </si>
+  <si>
+    <t>Chateau Haut Pougnan Entre-Deux-Mers 2015</t>
+  </si>
+  <si>
+    <t>Château Ausone 2012</t>
+  </si>
+  <si>
+    <t>Château Tour Blanche</t>
+  </si>
+  <si>
+    <t>Château Le Doyenné 2011</t>
+  </si>
+  <si>
+    <t>Château Bellegrave 2000</t>
+  </si>
+  <si>
+    <t>Château Francs Magnus 2014</t>
   </si>
   <si>
     <t>Château Margaux 2001</t>
   </si>
   <si>
-    <t>Château de Panigon 2013</t>
+    <t>Château Margaux 2011</t>
+  </si>
+  <si>
+    <t>Château Latour 2011</t>
+  </si>
+  <si>
+    <t>Château Pétrus 1999</t>
+  </si>
+  <si>
+    <t>Château Desmirail 2014</t>
+  </si>
+  <si>
+    <t>Château Ausone 2010</t>
   </si>
   <si>
     <t>Château Cheval Blanc 2010</t>
   </si>
   <si>
-    <t>Chateau Haut Pougnan Entre-Deux-Mers 2015</t>
-  </si>
-  <si>
-    <t>Château Ausone 2012</t>
-  </si>
-  <si>
-    <t>Château Le Doyenné 2011</t>
-  </si>
-  <si>
-    <t>Château Francs Magnus 2014</t>
-  </si>
-  <si>
-    <t>Château Tour Blanche</t>
-  </si>
-  <si>
-    <t>Château Bellegrave 2000</t>
-  </si>
-  <si>
-    <t>Château Faugères Cuvée Péby 2011</t>
-  </si>
-  <si>
-    <t>Château Climens 2010</t>
-  </si>
-  <si>
-    <t>Château Latour 2011</t>
-  </si>
-  <si>
-    <t>Château Haut-Brion 1998</t>
-  </si>
-  <si>
-    <t>Château Ausone 2010</t>
-  </si>
-  <si>
-    <t>Château La Rose Perrière 2008</t>
-  </si>
-  <si>
-    <t>Château Bélair-Monange 2013</t>
-  </si>
-  <si>
-    <t>Château Pétrus 1999</t>
-  </si>
-  <si>
-    <t>Château Desmirail 2014</t>
-  </si>
-  <si>
-    <t>Château Margaux 2011</t>
+    <t>Château Bellevue Figeac 2014</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2011</t>
+  </si>
+  <si>
+    <t>Château Clinet 2011</t>
+  </si>
+  <si>
+    <t>Cap Royal Rouge 2014</t>
+  </si>
+  <si>
+    <t>Château Ausone 2009</t>
+  </si>
+  <si>
+    <t>Haut-Brion Blanc 2007</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2011</t>
+  </si>
+  <si>
+    <t>Château Guiraud 2014</t>
+  </si>
+  <si>
+    <t>Château Léoville Poyferré 2009</t>
+  </si>
+  <si>
+    <t>Château Lagrange 2012</t>
+  </si>
+  <si>
+    <t>Château de Fieuzal 2014</t>
+  </si>
+  <si>
+    <t>Château Monconseil Gazin 2014</t>
+  </si>
+  <si>
+    <t>Pavillon Blanc 2012</t>
+  </si>
+  <si>
+    <t>Château Clerc Milon 2014</t>
+  </si>
+  <si>
+    <t>Château Lynch-Moussas 2014</t>
+  </si>
+  <si>
+    <t>Château Joanin Bécot 2006</t>
+  </si>
+  <si>
+    <t>Haut-Bailly 2004</t>
+  </si>
+  <si>
+    <t>Château Lanessan</t>
+  </si>
+  <si>
+    <t>Château Sainte Marie Alios</t>
+  </si>
+  <si>
+    <t>Château Lafleur 2011</t>
+  </si>
+  <si>
+    <t>Château Pétrus 1998</t>
   </si>
   <si>
     <t>Château La Dominique 2010</t>
   </si>
   <si>
-    <t>Château Bellevue Figeac 2014</t>
-  </si>
-  <si>
-    <t>Château de Fargues 2011</t>
+    <t>Château Goulée 2011</t>
+  </si>
+  <si>
+    <t>Château Pavie Decesse 2011</t>
+  </si>
+  <si>
+    <t>Vieux Château Certan 2010</t>
+  </si>
+  <si>
+    <t>Chapelle D'Ausone 2010</t>
   </si>
   <si>
     <t>Château Haut Brisson 2010</t>
   </si>
   <si>
+    <t>Château Recougne 2012</t>
+  </si>
+  <si>
+    <t>Château de Malle 1997</t>
+  </si>
+  <si>
+    <t>Château Grand-Puy-Lacoste 2013</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 2011</t>
+  </si>
+  <si>
+    <t>Château Blaignan 2010</t>
+  </si>
+  <si>
+    <t>Christian Moueix Merlot</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 1990</t>
+  </si>
+  <si>
+    <t>Château Pape Clément Blanc 2011</t>
+  </si>
+  <si>
+    <t>Château Haut-Brion Blanc 2012</t>
+  </si>
+  <si>
+    <t>Château de Fargues 2010</t>
+  </si>
+  <si>
+    <t>Chateau Cos D'Estournel Blanc 2013</t>
+  </si>
+  <si>
     <t>Château Laroque 2010</t>
   </si>
   <si>
-    <t>Château de Fieuzal 2014</t>
-  </si>
-  <si>
-    <t>Château Lynch-Moussas 2014</t>
-  </si>
-  <si>
-    <t>Château Clerc Milon 2014</t>
-  </si>
-  <si>
-    <t>Chapelle D'Ausone 2010</t>
-  </si>
-  <si>
-    <t>Haut-Brion Blanc 2007</t>
-  </si>
-  <si>
-    <t>Château Lafleur 2011</t>
-  </si>
-  <si>
-    <t>Haut-Bailly 2004</t>
-  </si>
-  <si>
-    <t>Château La Mission Haut-Brion 2011</t>
-  </si>
-  <si>
-    <t>Château Joanin Bécot 2006</t>
-  </si>
-  <si>
-    <t>Château Léoville Poyferré 2009</t>
-  </si>
-  <si>
-    <t>Cap Royal Rouge 2014</t>
+    <t>Chateau Haut-Piquat 2010</t>
+  </si>
+  <si>
+    <t>Château Larroque 2012</t>
+  </si>
+  <si>
+    <t>Laville-Haut-Brion Blanc</t>
+  </si>
+  <si>
+    <t>Château Margaux 2010</t>
+  </si>
+  <si>
+    <t>Château Branon 2011</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2013</t>
+  </si>
+  <si>
+    <t>Christian Moueix Saint-Émilion 2012</t>
+  </si>
+  <si>
+    <t>Château Malartic-Lagravière Blanc 2013</t>
+  </si>
+  <si>
+    <t>Château L'Espérance 2010</t>
+  </si>
+  <si>
+    <t>Château Langlais 2000</t>
+  </si>
+  <si>
+    <t>Chateau Vignot St. Emilion 2009</t>
+  </si>
+  <si>
+    <t>Château La Mission Haut-Brion 2010</t>
+  </si>
+  <si>
+    <t>Château Peymelon 2006</t>
+  </si>
+  <si>
+    <t>Château Vrai Caillou 2014</t>
+  </si>
+  <si>
+    <t>Clos Du Marquis 2013</t>
+  </si>
+  <si>
+    <t>Château Tour Baladoz 2009</t>
+  </si>
+  <si>
+    <t>Château Haut-Vignoble Seguin 2012</t>
+  </si>
+  <si>
+    <t>Château Palmer 2000</t>
+  </si>
+  <si>
+    <t>Clarence Dillon Clarendelle Blanc 2014</t>
+  </si>
+  <si>
+    <t>Château Pichon-Longueville-Baron 2013</t>
+  </si>
+  <si>
+    <t>Château Hosanna 2011</t>
+  </si>
+  <si>
+    <t>Château D'Yquem 1986</t>
+  </si>
+  <si>
+    <t>Château Poujeaux 2014</t>
+  </si>
+  <si>
+    <t>Clos Du Moulin 2012</t>
+  </si>
+  <si>
+    <t>Château Thieuley Francis Courselle Blanc 2010</t>
+  </si>
+  <si>
+    <t>Château L'Évangile 2011</t>
+  </si>
+  <si>
+    <t>16 Bordeaux Chateau Bellerives</t>
+  </si>
+  <si>
+    <t>Chateau de Valandraud</t>
+  </si>
+  <si>
+    <t>Château Troplong Mondot 2013</t>
+  </si>
+  <si>
+    <t>Château Fonreaud 2010</t>
+  </si>
+  <si>
+    <t>Château La Conseillante 2011</t>
   </si>
   <si>
     <t>Clarence Dillon Clarendelle Red 2012</t>
   </si>
   <si>
-    <t>Château Goulée 2011</t>
-  </si>
-  <si>
-    <t>Pavillon Blanc 2012</t>
-  </si>
-  <si>
-    <t>Château Monconseil Gazin 2014</t>
-  </si>
-  <si>
-    <t>Château Pétrus 1998</t>
-  </si>
-  <si>
-    <t>Château Guiraud 2014</t>
-  </si>
-  <si>
-    <t>Château Pavie Decesse 2011</t>
-  </si>
-  <si>
-    <t>Vieux Château Certan 2010</t>
-  </si>
-  <si>
-    <t>Château Ausone 2009</t>
-  </si>
-  <si>
-    <t>Château Clinet 2011</t>
-  </si>
-  <si>
-    <t>Château de Malle 1997</t>
-  </si>
-  <si>
-    <t>Château Margaux 2010</t>
-  </si>
-  <si>
-    <t>Château Branon 2011</t>
-  </si>
-  <si>
-    <t>Légende Bordeaux Blanc 2015</t>
-  </si>
-  <si>
-    <t>Chateau Haut-Piquat 2010</t>
-  </si>
-  <si>
-    <t>Château Pichon-Longueville-Baron 2013</t>
-  </si>
-  <si>
-    <t>Château La Mission Haut-Brion 2013</t>
-  </si>
-  <si>
-    <t>Chateau Cos D'Estournel Blanc 2013</t>
-  </si>
-  <si>
-    <t>Château de Fargues 2010</t>
-  </si>
-  <si>
-    <t>Château Malartic-Lagravière Blanc 2013</t>
-  </si>
-  <si>
-    <t>Château Blaignan 2010</t>
-  </si>
-  <si>
-    <t>Château Palmer 2000</t>
-  </si>
-  <si>
-    <t>Château Lagrange 2010</t>
+    <t>Château Clos Haut-Peyraguey 2013</t>
   </si>
   <si>
     <t>Le Dôme 2012</t>
   </si>
   <si>
-    <t>Château D'Yquem 2011</t>
-  </si>
-  <si>
-    <t>Château L'Espérance 2010</t>
-  </si>
-  <si>
-    <t>Christian Moueix Merlot</t>
-  </si>
-  <si>
-    <t>Château Pape Clément Blanc 2011</t>
-  </si>
-  <si>
-    <t>Château Langlais 2000</t>
-  </si>
-  <si>
-    <t>Château La Mission Haut-Brion 2010</t>
-  </si>
-  <si>
-    <t>Laville-Haut-Brion Blanc</t>
-  </si>
-  <si>
-    <t>Château Vrai Caillou 2014</t>
-  </si>
-  <si>
-    <t>Christian Moueix Saint-Émilion 2012</t>
-  </si>
-  <si>
-    <t>Château Poujeaux 2014</t>
-  </si>
-  <si>
-    <t>Château Haut-Vignoble Seguin 2012</t>
-  </si>
-  <si>
-    <t>Clarence Dillon Clarendelle Blanc 2014</t>
-  </si>
-  <si>
-    <t>Château Hosanna 2011</t>
-  </si>
-  <si>
-    <t>Château D'Yquem 1986</t>
+    <t>Château Suduiraut 2003</t>
+  </si>
+  <si>
+    <t>Château Canon 2014</t>
   </si>
   <si>
     <t>Chateau Cantenac Selection Madame 2014</t>
   </si>
   <si>
-    <t>Clos Du Marquis 2013</t>
-  </si>
-  <si>
-    <t>Clos Du Moulin 2012</t>
-  </si>
-  <si>
-    <t>16 Bordeaux Chateau Bellerives</t>
-  </si>
-  <si>
-    <t>Chateau de Valandraud</t>
-  </si>
-  <si>
-    <t>Château Malartic-Lagravière Pessac-Léognan</t>
-  </si>
-  <si>
-    <t>Château L'Évangile 2011</t>
-  </si>
-  <si>
-    <t>Château Troplong Mondot 2013</t>
-  </si>
-  <si>
-    <t>Château Pontet-Canet 2012</t>
-  </si>
-  <si>
-    <t>Château Vignol Blanc 2015</t>
-  </si>
-  <si>
-    <t>Château Thieuley Francis Courselle Blanc 2010</t>
-  </si>
-  <si>
-    <t>Château Peymelon 2006</t>
-  </si>
-  <si>
-    <t>Château Fonreaud 2010</t>
-  </si>
-  <si>
-    <t>Château La Conseillante 2011</t>
-  </si>
-  <si>
-    <t>Château Haut-Brion Blanc 2012</t>
-  </si>
-  <si>
-    <t>Château D'Yquem 1990</t>
-  </si>
-  <si>
-    <t>Château Clos Haut-Peyraguey 2013</t>
-  </si>
-  <si>
-    <t>Château Tour Baladoz 2009</t>
-  </si>
-  <si>
-    <t>Château Grand-Puy-Lacoste 2013</t>
-  </si>
-  <si>
-    <t>Château Roc de Levraut 2014</t>
-  </si>
-  <si>
-    <t>Château Suduiraut 2003</t>
+    <t>Discover the Wines of Bordeaux Dvd</t>
+  </si>
+  <si>
+    <t>Château Capbern Gasqueton 2009</t>
+  </si>
+  <si>
+    <t>Chateau Carbonneau Cuvee Sequoia 2014</t>
+  </si>
+  <si>
+    <t>Château La Vieille Cure</t>
   </si>
   <si>
     <t>Château Beauséjour Hostens 2010</t>
   </si>
   <si>
-    <t>Château Canon 2014</t>
-  </si>
-  <si>
-    <t>Château Lagrange 2012</t>
-  </si>
-  <si>
-    <t>Château La Vieille Cure</t>
-  </si>
-  <si>
-    <t>Château Recougne 2012</t>
-  </si>
-  <si>
-    <t>Discover the Wines of Bordeaux Dvd</t>
-  </si>
-  <si>
-    <t>Château Capbern Gasqueton 2009</t>
+    <t>Calvet Beaujolais Nouveau</t>
+  </si>
+  <si>
+    <t>Château Bellegrave Du Poujeau 2008</t>
+  </si>
+  <si>
+    <t>Barons Edmond and Benjamin de Rothschild Kpm</t>
+  </si>
+  <si>
+    <t>Ma Verite Gerard Depardieu</t>
+  </si>
+  <si>
+    <t>Chateau La Grolet Le Plateau 2015</t>
   </si>
   <si>
     <t>Chateau Larose Perganson 2006</t>
   </si>
   <si>
-    <t>Ma Verite Gerard Depardieu</t>
+    <t>Château de Chambrun</t>
+  </si>
+  <si>
+    <t>Moulin de Grenet 2015</t>
+  </si>
+  <si>
+    <t>Château La Rose Sarron</t>
+  </si>
+  <si>
+    <t>Château Fombrauge 2006</t>
+  </si>
+  <si>
+    <t>Chateau Larose Trintaudon Haut-Medoc 2014</t>
+  </si>
+  <si>
+    <t>Bad Boy</t>
   </si>
   <si>
     <t>Château Rauzan-Ségla 2014</t>
   </si>
   <si>
-    <t>Château Fombrauge</t>
-  </si>
-  <si>
-    <t>Chateau Larose Trintaudon Haut-Medoc 2014</t>
-  </si>
-  <si>
-    <t>Barons Edmond and Benjamin de Rothschild Kpm</t>
-  </si>
-  <si>
-    <t>Château La Rose Sarron</t>
-  </si>
-  <si>
-    <t>Moulin de Grenet</t>
-  </si>
-  <si>
-    <t>Château Bellegrave Du Poujeau</t>
-  </si>
-  <si>
-    <t>Château Puygueraud</t>
-  </si>
-  <si>
-    <t>Calvet Beaujolais Nouveau</t>
-  </si>
-  <si>
-    <t>Château Lanessan</t>
-  </si>
-  <si>
-    <t>Château de Chambrun</t>
-  </si>
-  <si>
-    <t>Bad Boy</t>
-  </si>
-  <si>
-    <t>Chateau La Grolet Le Plateau 2015</t>
-  </si>
-  <si>
-    <t>Château Sainte Marie Alios</t>
+    <t>Château Puygueraud 2015</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1703,7 +1694,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1995</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1711,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>3595</v>
+        <v>12994</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1719,7 +1710,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>12994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1767,7 +1758,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>2795</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1783,7 +1774,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>1995</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1799,7 +1790,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>1495</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1807,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>4795</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1871,7 +1862,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>8300</v>
+        <v>24985</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1879,7 +1870,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>24985</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1903,7 +1894,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>7700</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1911,7 +1902,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>5195</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1919,7 +1910,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>2295</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1927,7 +1918,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>5495</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1935,7 +1926,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>2485</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1951,7 +1942,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>3795</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1967,7 +1958,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>1995</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1975,7 +1966,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>3400</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1983,7 +1974,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>5400</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1991,7 +1982,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>2395</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1999,7 +1990,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>16000</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2007,7 +1998,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>5595</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2015,7 +2006,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>2395</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2023,7 +2014,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2039,7 +2030,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>8700</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2047,7 +2038,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>25500</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2055,7 +2046,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>1695</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2063,7 +2054,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>5800</v>
+        <v>24195</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2071,7 +2062,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>4195</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2087,7 +2078,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>24195</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2095,7 +2086,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>9995</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2103,7 +2094,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>2395</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2127,7 +2118,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>3995</v>
+        <v>16985</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2135,7 +2126,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>3485</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2151,7 +2142,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>1795</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2159,7 +2150,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>13000</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2167,7 +2158,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>16985</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2175,7 +2166,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>5995</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2183,7 +2174,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>14985</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2191,7 +2182,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>3995</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2199,7 +2190,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>15985</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2207,7 +2198,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>14300</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2215,7 +2206,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>20000</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2231,7 +2222,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>1685</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2247,7 +2238,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>14985</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2255,7 +2246,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>12485</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2263,7 +2254,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>8795</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2271,7 +2262,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>1495</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2279,7 +2270,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>1870</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2303,12 +2294,12 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>11985</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="n">
         <v>11985</v>
@@ -2316,18 +2307,18 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>39900</v>
+        <v>109584</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B104" t="n">
-        <v>109584</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2335,7 +2326,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>6395</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2343,7 +2334,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>2095</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2351,7 +2342,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1695</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2359,28 +2350,28 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>13000</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>51000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>8500</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="n">
         <v>5285</v>
@@ -2388,71 +2379,71 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>95000</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>13200</v>
+        <v>26985</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B114" t="n">
-        <v>89985</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26985</v>
+        <v>89985</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>16700</v>
+        <v>17595</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>17595</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2895</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1725</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>18800</v>
@@ -2460,79 +2451,79 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>200000</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>14585</v>
+        <v>63975</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>21000</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>63975</v>
+        <v>89585</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6984</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>89585</v>
+        <v>24985</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>24985</v>
+        <v>35925</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>35925</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2495</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>8425</v>
@@ -2540,7 +2531,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>21985</v>
@@ -2548,7 +2539,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>95585</v>
@@ -2556,47 +2547,47 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5130</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6984</v>
+        <v>63975</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3985</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>19800</v>
+        <v>112984</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>63975</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
         <v>12200</v>
@@ -2604,114 +2595,114 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13200</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>112984</v>
+        <v>83575</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4295</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6984</v>
+        <v>65600</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>65600</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>83575</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>15800</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>147000</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4295</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11100</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2195</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>8200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15985</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B152" t="n">
-        <v>6000</v>
+        <v>95585</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2719,7 +2710,7 @@
         <v>150</v>
       </c>
       <c r="B153" t="n">
-        <v>11400</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2727,7 +2718,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="n">
-        <v>50200</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2735,7 +2726,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="n">
-        <v>2155</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2743,180 +2734,180 @@
         <v>153</v>
       </c>
       <c r="B156" t="n">
-        <v>11000</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B157" t="n">
-        <v>95585</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B158" t="n">
-        <v>2455</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B159" t="n">
-        <v>2435</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B160" t="n">
-        <v>8045</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B161" t="n">
-        <v>12300</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" t="n">
-        <v>13485</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B163" t="n">
-        <v>8400</v>
+        <v>203500</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B164" t="n">
-        <v>1795</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B165" t="n">
-        <v>7975</v>
+        <v>21975</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B166" t="n">
-        <v>203500</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B167" t="n">
-        <v>5985</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B168" t="n">
-        <v>21975</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B169" t="n">
-        <v>5485</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B170" t="n">
-        <v>3575</v>
+        <v>13485</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B171" t="n">
-        <v>5300</v>
+        <v>104300</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B172" t="n">
-        <v>11595</v>
+        <v>7995</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B173" t="n">
-        <v>3745</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B174" t="n">
-        <v>8985</v>
+        <v>11595</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B175" t="n">
-        <v>7995</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B176" t="n">
-        <v>90225</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" t="n">
-        <v>12985</v>
+        <v>47985</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" t="n">
         <v>2140</v>
@@ -2924,39 +2915,39 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B179" t="n">
-        <v>47985</v>
+        <v>90225</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B180" t="n">
-        <v>223900</v>
+        <v>11885</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B181" t="n">
-        <v>11885</v>
+        <v>17585</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B182" t="n">
-        <v>17585</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B183" t="n">
         <v>17485</v>
@@ -2964,47 +2955,47 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" t="n">
-        <v>7284</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B185" t="n">
-        <v>141975</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B186" t="n">
-        <v>1795</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B187" t="n">
-        <v>18975</v>
+        <v>141975</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B188" t="n">
-        <v>27000</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B189" t="n">
         <v>12985</v>
@@ -3012,15 +3003,15 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B190" t="n">
-        <v>12985</v>
+        <v>223900</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B191" t="n">
         <v>14585</v>
@@ -3028,7 +3019,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B192" t="n">
         <v>8585</v>
@@ -3036,7 +3027,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B193" t="n">
         <v>6525</v>
@@ -3044,34 +3035,34 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B194" t="n">
-        <v>10985</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B195" t="n">
-        <v>5695</v>
+        <v>10985</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B196" t="n">
-        <v>10775</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B197" t="n">
-        <v>14985</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3084,66 +3075,66 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B199" t="n">
-        <v>3745</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B200" t="n">
-        <v>1695</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B201" t="n">
-        <v>6880</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B202" t="n">
-        <v>16900</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B203" t="n">
-        <v>53975</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B204" t="n">
-        <v>7700</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B205" t="n">
-        <v>44900</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B206" t="n">
-        <v>9985</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3151,7 +3142,7 @@
         <v>202</v>
       </c>
       <c r="B207" t="n">
-        <v>104300</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3159,79 +3150,79 @@
         <v>203</v>
       </c>
       <c r="B208" t="n">
-        <v>8100</v>
+        <v>53975</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B209" t="n">
-        <v>6880</v>
+        <v>16985</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B210" t="n">
-        <v>8285</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B211" t="n">
-        <v>5485</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B212" t="n">
-        <v>7800</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B213" t="n">
-        <v>34985</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B214" t="n">
-        <v>16985</v>
+        <v>34985</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B215" t="n">
-        <v>53000</v>
+        <v>23985</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="B216" t="n">
-        <v>6584</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="B217" t="n">
-        <v>9300</v>
+        <v>89585</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3239,87 +3230,87 @@
         <v>211</v>
       </c>
       <c r="B218" t="n">
-        <v>23985</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="B219" t="n">
-        <v>89585</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B220" t="n">
-        <v>8985</v>
+        <v>18375</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B221" t="n">
-        <v>20900</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B222" t="n">
-        <v>1899500</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B223" t="n">
-        <v>18375</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B224" t="n">
-        <v>7984</v>
+        <v>1899500</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B225" t="n">
-        <v>39500</v>
+        <v>29975</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B226" t="n">
-        <v>29975</v>
+        <v>17575</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B227" t="n">
-        <v>115000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="B228" t="n">
-        <v>13985</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3335,164 +3326,164 @@
         <v>221</v>
       </c>
       <c r="B230" t="n">
-        <v>2900</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="B231" t="n">
-        <v>220000</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="B232" t="n">
-        <v>17575</v>
+        <v>95585</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="B233" t="n">
-        <v>15985</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B234" t="n">
-        <v>1995</v>
+        <v>24585</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B235" t="n">
-        <v>24585</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B236" t="n">
-        <v>95585</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B237" t="n">
-        <v>2295</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B238" t="n">
-        <v>14800</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B239" t="n">
-        <v>37975</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B240" t="n">
-        <v>1945</v>
+        <v>19585</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B241" t="n">
-        <v>5785</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B242" t="n">
-        <v>10500</v>
+        <v>117500</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B243" t="n">
-        <v>1595</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B244" t="n">
-        <v>9985</v>
+        <v>9525</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B245" t="n">
-        <v>117500</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B246" t="n">
-        <v>19585</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B247" t="n">
-        <v>2525</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B248" t="n">
-        <v>9985</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B249" t="n">
-        <v>9525</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B250" t="n">
         <v>49975</v>
@@ -3500,7 +3491,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B251" t="n">
         <v>7284</v>
@@ -3508,55 +3499,55 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B252" t="n">
-        <v>9000</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B253" t="n">
-        <v>4285</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B254" t="n">
-        <v>10900</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B255" t="n">
-        <v>2395</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B256" t="n">
-        <v>1065</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B257" t="n">
-        <v>1995</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B258" t="n">
         <v>3675</v>
@@ -3564,58 +3555,58 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B259" t="n">
-        <v>2595</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="B260" t="n">
-        <v>13985</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B261" t="n">
-        <v>4600</v>
+        <v>21985</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="B262" t="n">
-        <v>12985</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="B263" t="n">
-        <v>41975</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B264" t="n">
-        <v>6984</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="B265" t="n">
-        <v>6000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3623,7 +3614,7 @@
         <v>253</v>
       </c>
       <c r="B266" t="n">
-        <v>26700</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3631,7 +3622,7 @@
         <v>254</v>
       </c>
       <c r="B267" t="n">
-        <v>21985</v>
+        <v>22485</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3639,7 +3630,7 @@
         <v>255</v>
       </c>
       <c r="B268" t="n">
-        <v>27600</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3647,124 +3638,124 @@
         <v>256</v>
       </c>
       <c r="B269" t="n">
-        <v>11585</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="B270" t="n">
-        <v>141000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B271" t="n">
-        <v>23800</v>
+        <v>45025</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B272" t="n">
-        <v>45025</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B273" t="n">
-        <v>28500</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B274" t="n">
-        <v>5885</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B275" t="n">
-        <v>22485</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B276" t="n">
-        <v>32500</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B277" t="n">
-        <v>123000</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B278" t="n">
-        <v>1625</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B279" t="n">
-        <v>199885</v>
+        <v>154900</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B280" t="n">
-        <v>1495</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B281" t="n">
-        <v>71975</v>
+        <v>14585</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" t="n">
-        <v>2495</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B283" t="n">
-        <v>1575</v>
+        <v>71975</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B284" t="n">
         <v>16995</v>
@@ -3772,514 +3763,514 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B285" t="n">
-        <v>8895</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B286" t="n">
-        <v>13985</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B287" t="n">
-        <v>7575</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B288" t="n">
-        <v>109584</v>
+        <v>123000</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="B289" t="n">
-        <v>37975</v>
+        <v>76475</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B290" t="n">
-        <v>154900</v>
+        <v>109584</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B291" t="n">
-        <v>209975</v>
+        <v>386500</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="B292" t="n">
-        <v>6984</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="B293" t="n">
-        <v>8985</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="B294" t="n">
-        <v>2995</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="B295" t="n">
-        <v>14585</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B296" t="n">
-        <v>386500</v>
+        <v>209975</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B297" t="n">
-        <v>6285</v>
+        <v>199885</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B298" t="n">
-        <v>76475</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B299" t="n">
-        <v>10600</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B300" t="n">
-        <v>2495</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B301" t="n">
-        <v>8985</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B302" t="n">
-        <v>4900</v>
+        <v>195575</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B303" t="n">
-        <v>7100</v>
+        <v>89500</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="B304" t="n">
-        <v>223900</v>
+        <v>47585</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B305" t="n">
-        <v>6484</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="B306" t="n">
-        <v>2495</v>
+        <v>106775</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="B307" t="n">
-        <v>199900</v>
+        <v>57900</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B308" t="n">
-        <v>6484</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B309" t="n">
-        <v>9985</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B310" t="n">
-        <v>34900</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B311" t="n">
-        <v>89500</v>
+        <v>18275</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B312" t="n">
-        <v>99985</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B313" t="n">
-        <v>32500</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B314" t="n">
-        <v>47585</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="B315" t="n">
-        <v>4800</v>
+        <v>199900</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="B316" t="n">
-        <v>57900</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B317" t="n">
-        <v>1795</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B318" t="n">
-        <v>2395</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B319" t="n">
-        <v>3985</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B320" t="n">
-        <v>18275</v>
+        <v>99985</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B321" t="n">
-        <v>1895</v>
+        <v>627900</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="B322" t="n">
-        <v>106775</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B323" t="n">
-        <v>627900</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B324" t="n">
-        <v>8985</v>
+        <v>19985</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="B325" t="n">
-        <v>19985</v>
+        <v>229900</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="B326" t="n">
-        <v>229900</v>
+        <v>44485</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B327" t="n">
-        <v>44485</v>
+        <v>34900</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B328" t="n">
-        <v>195575</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B329" t="n">
-        <v>20200</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="B330" t="n">
-        <v>8200</v>
+        <v>223900</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B331" t="n">
-        <v>154485</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B332" t="n">
-        <v>10985</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B333" t="n">
-        <v>1795</v>
+        <v>54725</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B334" t="n">
-        <v>2295</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B335" t="n">
-        <v>14485</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B336" t="n">
-        <v>29985</v>
+        <v>142900</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B337" t="n">
-        <v>11585</v>
+        <v>23585</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B338" t="n">
-        <v>20485</v>
+        <v>119975</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B339" t="n">
-        <v>11485</v>
+        <v>20485</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B340" t="n">
-        <v>2195</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B341" t="n">
-        <v>244485</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B342" t="n">
-        <v>79900</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B343" t="n">
-        <v>12400</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B344" t="n">
-        <v>13975</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>322</v>
+        <v>115</v>
       </c>
       <c r="B345" t="n">
-        <v>54725</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B346" t="n">
-        <v>1995</v>
+        <v>154485</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B347" t="n">
-        <v>1695</v>
+        <v>10985</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="B348" t="n">
-        <v>23585</v>
+        <v>71625</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4287,7 +4278,7 @@
         <v>326</v>
       </c>
       <c r="B349" t="n">
-        <v>3895</v>
+        <v>29985</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4295,7 +4286,7 @@
         <v>327</v>
       </c>
       <c r="B350" t="n">
-        <v>154585</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4303,47 +4294,47 @@
         <v>328</v>
       </c>
       <c r="B351" t="n">
-        <v>27500</v>
+        <v>11485</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="B352" t="n">
-        <v>12485</v>
+        <v>244485</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="B353" t="n">
-        <v>71625</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B354" t="n">
-        <v>1595</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B355" t="n">
-        <v>2695</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B356" t="n">
-        <v>5485</v>
+        <v>154485</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4351,7 +4342,7 @@
         <v>332</v>
       </c>
       <c r="B357" t="n">
-        <v>3295</v>
+        <v>154585</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4359,7 +4350,7 @@
         <v>333</v>
       </c>
       <c r="B358" t="n">
-        <v>1875</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4367,7 +4358,7 @@
         <v>334</v>
       </c>
       <c r="B359" t="n">
-        <v>18985</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4375,172 +4366,172 @@
         <v>335</v>
       </c>
       <c r="B360" t="n">
-        <v>114900</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="B361" t="n">
-        <v>154485</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B362" t="n">
-        <v>3200</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B363" t="n">
-        <v>7484</v>
+        <v>79900</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B364" t="n">
-        <v>2725</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B365" t="n">
-        <v>1895</v>
+        <v>14485</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B366" t="n">
-        <v>32425</v>
+        <v>18985</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B367" t="n">
-        <v>13200</v>
+        <v>114900</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="B368" t="n">
-        <v>11485</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>227</v>
+        <v>344</v>
       </c>
       <c r="B369" t="n">
-        <v>37975</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B370" t="n">
-        <v>22485</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B371" t="n">
-        <v>13585</v>
+        <v>11485</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B372" t="n">
-        <v>14985</v>
+        <v>22485</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B373" t="n">
-        <v>1175</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="B374" t="n">
-        <v>89500</v>
+        <v>32425</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B375" t="n">
-        <v>1925</v>
+        <v>13585</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="B376" t="n">
-        <v>1995</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="B377" t="n">
-        <v>4495</v>
+        <v>89500</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B378" t="n">
-        <v>13925</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B379" t="n">
-        <v>119975</v>
+        <v>13925</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B380" t="n">
-        <v>142900</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B381" t="n">
         <v>6700</v>
@@ -4548,63 +4539,63 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B382" t="n">
-        <v>4295</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B383" t="n">
-        <v>9985</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B384" t="n">
-        <v>1395</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B385" t="n">
-        <v>4800</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B386" t="n">
-        <v>2395</v>
+        <v>985</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B387" t="n">
-        <v>10900</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B388" t="n">
-        <v>1995</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B389" t="n">
         <v>4195</v>
@@ -4612,15 +4603,15 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B390" t="n">
-        <v>1495</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B391" t="n">
         <v>985</v>
@@ -4628,23 +4619,23 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B392" t="n">
-        <v>4195</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B393" t="n">
-        <v>3295</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B394" t="n">
         <v>4995</v>
@@ -4652,122 +4643,90 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="B395" t="n">
-        <v>2995</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B396" t="n">
-        <v>12500</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B397" t="n">
-        <v>6295</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B398" t="n">
-        <v>6110</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B399" t="n">
-        <v>3695</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B400" t="n">
-        <v>1795</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>371</v>
+        <v>54</v>
       </c>
       <c r="B401" t="n">
-        <v>1995</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B402" t="n">
-        <v>3895</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B403" t="n">
-        <v>2895</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B404" t="n">
-        <v>985</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B405" t="n">
-        <v>6995</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" t="s">
-        <v>376</v>
-      </c>
-      <c r="B406" t="n">
-        <v>4995</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" t="s">
-        <v>377</v>
-      </c>
-      <c r="B407" t="n">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" t="s">
-        <v>378</v>
-      </c>
-      <c r="B408" t="n">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" t="s">
-        <v>379</v>
-      </c>
-      <c r="B409" t="n">
-        <v>1595</v>
+        <v>2895</v>
       </c>
     </row>
   </sheetData>
